--- a/03_ips_clean/09_data_web/00_ips.xlsx
+++ b/03_ips_clean/09_data_web/00_ips.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -438,10 +438,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>61.5145958390418</v>
+        <v>62.9112727435981</v>
       </c>
       <c r="C2" t="n">
-        <v>67.9970523729048</v>
+        <v>68.4083076309796</v>
       </c>
       <c r="D2" t="n">
-        <v>67.0315026571513</v>
+        <v>67.8246060194726</v>
       </c>
       <c r="E2" t="n">
-        <v>63.3856812673057</v>
+        <v>68.3926379131309</v>
       </c>
       <c r="F2" t="n">
-        <v>62.636003602539</v>
+        <v>61.8691351877818</v>
       </c>
       <c r="G2" t="n">
-        <v>61.1882163461143</v>
+        <v>64.6431864631413</v>
       </c>
       <c r="H2" t="n">
-        <v>61.5852657713381</v>
+        <v>68.4512154400439</v>
       </c>
       <c r="I2" t="n">
-        <v>47.6673238266067</v>
+        <v>48.9858255011325</v>
       </c>
       <c r="J2" t="n">
-        <v>61.3943725871839</v>
+        <v>63.1260457794123</v>
       </c>
       <c r="K2" t="n">
-        <v>70.1251741572399</v>
+        <v>72.4804888274682</v>
       </c>
       <c r="L2" t="n">
-        <v>62.7200783490684</v>
+        <v>63.9085344153749</v>
       </c>
       <c r="M2" t="n">
-        <v>56.1503602515275</v>
+        <v>61.1051664682504</v>
       </c>
       <c r="N2" t="n">
-        <v>45.2121467030023</v>
+        <v>47.9566173279924</v>
       </c>
       <c r="O2" t="n">
-        <v>59.086585063605</v>
+        <v>61.3554667478314</v>
       </c>
       <c r="P2" t="n">
-        <v>66.4247523402203</v>
+        <v>67.6512369344701</v>
       </c>
       <c r="Q2" t="n">
-        <v>61.1970858892461</v>
+        <v>64.4106474757415</v>
       </c>
       <c r="R2" t="n">
-        <v>56.4754195832698</v>
+        <v>59.1907906237604</v>
       </c>
       <c r="S2" t="n">
-        <v>58.2590105156669</v>
+        <v>61.0525772363417</v>
       </c>
       <c r="T2" t="n">
-        <v>61.9976583011149</v>
+        <v>63.009678598768</v>
       </c>
       <c r="U2" t="n">
-        <v>70.8248921882079</v>
+        <v>71.0813846771324</v>
       </c>
       <c r="V2" t="n">
-        <v>51.731755152649</v>
+        <v>50.7984661312736</v>
       </c>
       <c r="W2" t="n">
-        <v>55.6541509469411</v>
+        <v>59.4170977663499</v>
       </c>
       <c r="X2" t="n">
-        <v>68.524374979213</v>
+        <v>68.9311810548839</v>
       </c>
       <c r="Y2" t="n">
-        <v>66.0495114759798</v>
+        <v>65.462289779292</v>
       </c>
       <c r="Z2" t="n">
-        <v>60.7126550323705</v>
+        <v>60.830961860868</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.1496036532216</v>
+        <v>65.226173442449</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.1603170878186</v>
+        <v>67.0939187395318</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.3462576463313</v>
+        <v>56.0181715924039</v>
       </c>
       <c r="AD2" t="n">
-        <v>63.6101367419667</v>
+        <v>64.8205891394874</v>
       </c>
       <c r="AE2" t="n">
-        <v>61.7820756941862</v>
+        <v>64.5758155750695</v>
       </c>
       <c r="AF2" t="n">
-        <v>56.5994481111446</v>
+        <v>55.9760345467434</v>
       </c>
       <c r="AG2" t="n">
-        <v>65.481508643673</v>
+        <v>62.8694180127502</v>
       </c>
       <c r="AH2" t="n">
-        <v>58.2873157778601</v>
+        <v>61.6436345612737</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>62.2129277671751</v>
+        <v>63.2733216919274</v>
       </c>
       <c r="C3" t="n">
-        <v>68.352319210523</v>
+        <v>69.4022740631121</v>
       </c>
       <c r="D3" t="n">
-        <v>68.4622903867309</v>
+        <v>69.5377882736111</v>
       </c>
       <c r="E3" t="n">
-        <v>64.0278041044835</v>
+        <v>69.2342100736471</v>
       </c>
       <c r="F3" t="n">
-        <v>62.6459707216661</v>
+        <v>61.646004463774</v>
       </c>
       <c r="G3" t="n">
-        <v>66.1928812794562</v>
+        <v>67.1792596123571</v>
       </c>
       <c r="H3" t="n">
-        <v>65.4725411625555</v>
+        <v>65.3743121511665</v>
       </c>
       <c r="I3" t="n">
-        <v>50.2420419863508</v>
+        <v>51.1775337852964</v>
       </c>
       <c r="J3" t="n">
-        <v>64.8885086513501</v>
+        <v>66.4539949047299</v>
       </c>
       <c r="K3" t="n">
-        <v>71.5705355664072</v>
+        <v>73.1575784309442</v>
       </c>
       <c r="L3" t="n">
-        <v>65.0069213207279</v>
+        <v>66.4188765957618</v>
       </c>
       <c r="M3" t="n">
-        <v>62.446586691189</v>
+        <v>62.7844003117857</v>
       </c>
       <c r="N3" t="n">
-        <v>46.332315324314</v>
+        <v>47.6060375447101</v>
       </c>
       <c r="O3" t="n">
-        <v>60.6811105629353</v>
+        <v>63.1238927417036</v>
       </c>
       <c r="P3" t="n">
-        <v>66.8209864138745</v>
+        <v>68.4933401862149</v>
       </c>
       <c r="Q3" t="n">
-        <v>61.9922595397137</v>
+        <v>64.0500226263433</v>
       </c>
       <c r="R3" t="n">
-        <v>58.7964434538235</v>
+        <v>59.765185508226</v>
       </c>
       <c r="S3" t="n">
-        <v>59.336631709019</v>
+        <v>61.8277058829646</v>
       </c>
       <c r="T3" t="n">
-        <v>63.3882751796569</v>
+        <v>64.9952763145592</v>
       </c>
       <c r="U3" t="n">
-        <v>69.7523929949694</v>
+        <v>70.1020305206106</v>
       </c>
       <c r="V3" t="n">
-        <v>50.7524714596797</v>
+        <v>49.6076692710178</v>
       </c>
       <c r="W3" t="n">
-        <v>57.2808186198535</v>
+        <v>60.1659188354282</v>
       </c>
       <c r="X3" t="n">
-        <v>68.3222628744556</v>
+        <v>67.6507386041286</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.5752701647541</v>
+        <v>66.6987435280676</v>
       </c>
       <c r="Z3" t="n">
-        <v>61.1975617203082</v>
+        <v>61.0227864309516</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.8345757055425</v>
+        <v>66.1122966657299</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.5849759900486</v>
+        <v>67.5034507012919</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.4188329693067</v>
+        <v>56.952558101591</v>
       </c>
       <c r="AD3" t="n">
-        <v>63.8479308804233</v>
+        <v>64.9486849813094</v>
       </c>
       <c r="AE3" t="n">
-        <v>61.5789849691988</v>
+        <v>62.9447457032264</v>
       </c>
       <c r="AF3" t="n">
-        <v>55.3716459396957</v>
+        <v>54.8667768151757</v>
       </c>
       <c r="AG3" t="n">
-        <v>66.5782277853954</v>
+        <v>65.0514947519085</v>
       </c>
       <c r="AH3" t="n">
-        <v>59.5331881762149</v>
+        <v>62.1343437073832</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>62.5468357105408</v>
+        <v>63.8428508187982</v>
       </c>
       <c r="C4" t="n">
-        <v>68.0764785403971</v>
+        <v>69.3713136618093</v>
       </c>
       <c r="D4" t="n">
-        <v>67.6587773557191</v>
+        <v>68.3997402275718</v>
       </c>
       <c r="E4" t="n">
-        <v>61.8265667735578</v>
+        <v>67.5680830350406</v>
       </c>
       <c r="F4" t="n">
-        <v>62.8255193311126</v>
+        <v>62.074706683872</v>
       </c>
       <c r="G4" t="n">
-        <v>66.3506048767041</v>
+        <v>67.5399723207137</v>
       </c>
       <c r="H4" t="n">
-        <v>64.976167327425</v>
+        <v>65.5995637409451</v>
       </c>
       <c r="I4" t="n">
-        <v>51.0537760560086</v>
+        <v>52.1526000262224</v>
       </c>
       <c r="J4" t="n">
-        <v>64.7863745316691</v>
+        <v>66.1782396835189</v>
       </c>
       <c r="K4" t="n">
-        <v>70.9960361344857</v>
+        <v>73.457959186709</v>
       </c>
       <c r="L4" t="n">
-        <v>64.4952270820682</v>
+        <v>65.8073562980271</v>
       </c>
       <c r="M4" t="n">
-        <v>62.5079202607923</v>
+        <v>63.3398415372028</v>
       </c>
       <c r="N4" t="n">
-        <v>47.2732449509593</v>
+        <v>48.6076176225986</v>
       </c>
       <c r="O4" t="n">
-        <v>60.5486642904921</v>
+        <v>62.3155702400613</v>
       </c>
       <c r="P4" t="n">
-        <v>66.9059260150156</v>
+        <v>68.7540866782287</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.9129118073239</v>
+        <v>65.9454998224274</v>
       </c>
       <c r="R4" t="n">
-        <v>59.0787895002624</v>
+        <v>60.5582980716494</v>
       </c>
       <c r="S4" t="n">
-        <v>58.8721087740373</v>
+        <v>62.3376625303798</v>
       </c>
       <c r="T4" t="n">
-        <v>61.7150414650755</v>
+        <v>64.1497949686532</v>
       </c>
       <c r="U4" t="n">
-        <v>69.6376746452237</v>
+        <v>69.9571124367025</v>
       </c>
       <c r="V4" t="n">
-        <v>51.6823902322093</v>
+        <v>50.5275467004561</v>
       </c>
       <c r="W4" t="n">
-        <v>58.0306584346873</v>
+        <v>61.3096952464842</v>
       </c>
       <c r="X4" t="n">
-        <v>68.4631465021802</v>
+        <v>68.638579165693</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.5585386867256</v>
+        <v>66.9585001669549</v>
       </c>
       <c r="Z4" t="n">
-        <v>60.6742012527338</v>
+        <v>60.5821162505057</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.0435965489815</v>
+        <v>68.3329826885601</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.3460831089763</v>
+        <v>68.9785845183492</v>
       </c>
       <c r="AC4" t="n">
-        <v>57.6895418799713</v>
+        <v>57.1283017261832</v>
       </c>
       <c r="AD4" t="n">
-        <v>63.8860695722293</v>
+        <v>64.6932486969748</v>
       </c>
       <c r="AE4" t="n">
-        <v>61.7328143162485</v>
+        <v>63.5217866377246</v>
       </c>
       <c r="AF4" t="n">
-        <v>55.6343995882733</v>
+        <v>56.1997051206807</v>
       </c>
       <c r="AG4" t="n">
-        <v>67.9234166957504</v>
+        <v>66.8785155430037</v>
       </c>
       <c r="AH4" t="n">
-        <v>58.6682246891151</v>
+        <v>62.0817605543559</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>63.6205364915081</v>
+        <v>64.7847632767447</v>
       </c>
       <c r="C5" t="n">
-        <v>70.1375791958595</v>
+        <v>71.2890162726386</v>
       </c>
       <c r="D5" t="n">
-        <v>67.7886141630183</v>
+        <v>68.2752976669257</v>
       </c>
       <c r="E5" t="n">
-        <v>64.3357813950882</v>
+        <v>69.6524851831441</v>
       </c>
       <c r="F5" t="n">
-        <v>62.9024144887463</v>
+        <v>61.7696184634334</v>
       </c>
       <c r="G5" t="n">
-        <v>67.1754602476967</v>
+        <v>68.645970659714</v>
       </c>
       <c r="H5" t="n">
-        <v>66.7045706577522</v>
+        <v>67.0331961132112</v>
       </c>
       <c r="I5" t="n">
-        <v>51.3368251992221</v>
+        <v>52.0198168534676</v>
       </c>
       <c r="J5" t="n">
-        <v>65.8346256686763</v>
+        <v>67.4463087318103</v>
       </c>
       <c r="K5" t="n">
-        <v>73.5586486343253</v>
+        <v>75.7972207403927</v>
       </c>
       <c r="L5" t="n">
-        <v>65.5477757713397</v>
+        <v>65.8455973162486</v>
       </c>
       <c r="M5" t="n">
-        <v>63.0593351604346</v>
+        <v>63.9012201214572</v>
       </c>
       <c r="N5" t="n">
-        <v>48.5328654947974</v>
+        <v>50.2886361583485</v>
       </c>
       <c r="O5" t="n">
-        <v>61.6872548418262</v>
+        <v>63.3698685431154</v>
       </c>
       <c r="P5" t="n">
-        <v>68.5112562602282</v>
+        <v>69.8138673479444</v>
       </c>
       <c r="Q5" t="n">
-        <v>64.4975771983138</v>
+        <v>66.1609469116824</v>
       </c>
       <c r="R5" t="n">
-        <v>60.2655649811293</v>
+        <v>61.9623876240963</v>
       </c>
       <c r="S5" t="n">
-        <v>60.5723889778172</v>
+        <v>64.0124927560244</v>
       </c>
       <c r="T5" t="n">
-        <v>63.0997880101479</v>
+        <v>64.92252609672</v>
       </c>
       <c r="U5" t="n">
-        <v>71.6134448178319</v>
+        <v>72.3216828981459</v>
       </c>
       <c r="V5" t="n">
-        <v>52.9900556576598</v>
+        <v>52.6173252202592</v>
       </c>
       <c r="W5" t="n">
-        <v>59.8990273817229</v>
+        <v>62.9665030806288</v>
       </c>
       <c r="X5" t="n">
-        <v>68.8678414545977</v>
+        <v>69.211051392309</v>
       </c>
       <c r="Y5" t="n">
-        <v>67.0220617118814</v>
+        <v>66.9330139211528</v>
       </c>
       <c r="Z5" t="n">
-        <v>61.9687154865822</v>
+        <v>62.2239091989299</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.176731928988</v>
+        <v>68.3519716546026</v>
       </c>
       <c r="AB5" t="n">
-        <v>69.2739920424463</v>
+        <v>70.3766423499627</v>
       </c>
       <c r="AC5" t="n">
-        <v>56.7841738252494</v>
+        <v>56.7687544451726</v>
       </c>
       <c r="AD5" t="n">
-        <v>66.4696330356349</v>
+        <v>67.3145357503256</v>
       </c>
       <c r="AE5" t="n">
-        <v>63.1779137007015</v>
+        <v>65.4505707351277</v>
       </c>
       <c r="AF5" t="n">
-        <v>56.9397525861156</v>
+        <v>57.1211734851899</v>
       </c>
       <c r="AG5" t="n">
-        <v>67.9123513674196</v>
+        <v>66.6523074258003</v>
       </c>
       <c r="AH5" t="n">
-        <v>60.4352092522084</v>
+        <v>63.8115719347009</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>63.4461525736859</v>
+        <v>64.5466043990665</v>
       </c>
       <c r="C6" t="n">
-        <v>70.4920719669424</v>
+        <v>71.9477917654578</v>
       </c>
       <c r="D6" t="n">
-        <v>67.956361497213</v>
+        <v>68.8494068854124</v>
       </c>
       <c r="E6" t="n">
-        <v>64.5490496754469</v>
+        <v>69.612344267631</v>
       </c>
       <c r="F6" t="n">
-        <v>61.8348648711649</v>
+        <v>61.5008390719652</v>
       </c>
       <c r="G6" t="n">
-        <v>67.488094112394</v>
+        <v>69.0759893974398</v>
       </c>
       <c r="H6" t="n">
-        <v>64.2095929814989</v>
+        <v>64.7624444667629</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2954872414418</v>
+        <v>52.1425487608408</v>
       </c>
       <c r="J6" t="n">
-        <v>65.525971428131</v>
+        <v>66.8400890297081</v>
       </c>
       <c r="K6" t="n">
-        <v>72.8939484017069</v>
+        <v>75.0922388430518</v>
       </c>
       <c r="L6" t="n">
-        <v>65.4929768616406</v>
+        <v>66.062016208842</v>
       </c>
       <c r="M6" t="n">
-        <v>62.4676394748583</v>
+        <v>62.8857305942649</v>
       </c>
       <c r="N6" t="n">
-        <v>47.4963864890895</v>
+        <v>48.4199300796339</v>
       </c>
       <c r="O6" t="n">
-        <v>62.1162253311399</v>
+        <v>64.0848266982137</v>
       </c>
       <c r="P6" t="n">
-        <v>68.5658395481098</v>
+        <v>70.0833978788946</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.9976351350647</v>
+        <v>65.5845572614408</v>
       </c>
       <c r="R6" t="n">
-        <v>59.8186688646934</v>
+        <v>61.4546525721423</v>
       </c>
       <c r="S6" t="n">
-        <v>60.1113432872691</v>
+        <v>63.9810510161127</v>
       </c>
       <c r="T6" t="n">
-        <v>63.5600704545052</v>
+        <v>65.6575796012833</v>
       </c>
       <c r="U6" t="n">
-        <v>71.8179263744775</v>
+        <v>72.785406627737</v>
       </c>
       <c r="V6" t="n">
-        <v>53.5431548614725</v>
+        <v>52.2387719460771</v>
       </c>
       <c r="W6" t="n">
-        <v>59.461137746152</v>
+        <v>62.3053971758256</v>
       </c>
       <c r="X6" t="n">
-        <v>68.9684060726977</v>
+        <v>69.2066223520965</v>
       </c>
       <c r="Y6" t="n">
-        <v>66.6237188528242</v>
+        <v>66.1311839166663</v>
       </c>
       <c r="Z6" t="n">
-        <v>61.9204109117714</v>
+        <v>62.2402470891421</v>
       </c>
       <c r="AA6" t="n">
-        <v>68.3157050072568</v>
+        <v>68.6962587477745</v>
       </c>
       <c r="AB6" t="n">
-        <v>68.7283450962741</v>
+        <v>69.4776828845307</v>
       </c>
       <c r="AC6" t="n">
-        <v>57.8492971334201</v>
+        <v>57.5289321154745</v>
       </c>
       <c r="AD6" t="n">
-        <v>67.2582186621521</v>
+        <v>68.3260881122555</v>
       </c>
       <c r="AE6" t="n">
-        <v>63.1639420968938</v>
+        <v>64.8999269835291</v>
       </c>
       <c r="AF6" t="n">
-        <v>56.1557299880899</v>
+        <v>56.3051191682489</v>
       </c>
       <c r="AG6" t="n">
-        <v>69.0601545940538</v>
+        <v>68.3796348610558</v>
       </c>
       <c r="AH6" t="n">
-        <v>60.2493894500133</v>
+        <v>63.7394874500864</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,207 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>63.2280401014699</v>
+        <v>64.1254472181405</v>
       </c>
       <c r="C7" t="n">
-        <v>70.2658682732292</v>
+        <v>70.701784477164</v>
       </c>
       <c r="D7" t="n">
-        <v>68.3238320633221</v>
+        <v>68.6705100058156</v>
       </c>
       <c r="E7" t="n">
-        <v>64.6090785119017</v>
+        <v>69.7264445700748</v>
       </c>
       <c r="F7" t="n">
-        <v>62.3091214678551</v>
+        <v>61.1437990222482</v>
       </c>
       <c r="G7" t="n">
-        <v>66.9755338915714</v>
+        <v>67.772238464239</v>
       </c>
       <c r="H7" t="n">
-        <v>65.6225882306779</v>
+        <v>66.3510643187947</v>
       </c>
       <c r="I7" t="n">
-        <v>49.9152143682167</v>
+        <v>51.710675475478</v>
       </c>
       <c r="J7" t="n">
-        <v>63.7061342454957</v>
+        <v>64.2665856970339</v>
       </c>
       <c r="K7" t="n">
-        <v>69.7058586181892</v>
+        <v>72.2821832558604</v>
       </c>
       <c r="L7" t="n">
-        <v>66.6283786277434</v>
+        <v>67.0520941034709</v>
       </c>
       <c r="M7" t="n">
-        <v>60.9108710252859</v>
+        <v>61.3452680460049</v>
       </c>
       <c r="N7" t="n">
-        <v>48.4181680510365</v>
+        <v>49.862546086195</v>
       </c>
       <c r="O7" t="n">
-        <v>62.9329423951849</v>
+        <v>64.6367587964371</v>
       </c>
       <c r="P7" t="n">
-        <v>68.0985912801207</v>
+        <v>69.2980604181851</v>
       </c>
       <c r="Q7" t="n">
-        <v>62.0282314325305</v>
+        <v>63.7050703461416</v>
       </c>
       <c r="R7" t="n">
-        <v>58.3445458730647</v>
+        <v>60.3966149147667</v>
       </c>
       <c r="S7" t="n">
-        <v>58.9279039885733</v>
+        <v>61.7329106796136</v>
       </c>
       <c r="T7" t="n">
-        <v>63.3214345437984</v>
+        <v>64.1030478744023</v>
       </c>
       <c r="U7" t="n">
-        <v>72.5477813681908</v>
+        <v>72.9040634034288</v>
       </c>
       <c r="V7" t="n">
-        <v>51.0260820417709</v>
+        <v>50.2477883610117</v>
       </c>
       <c r="W7" t="n">
-        <v>57.9945402243683</v>
+        <v>60.4174779758752</v>
       </c>
       <c r="X7" t="n">
-        <v>70.5039481807018</v>
+        <v>71.1145483045147</v>
       </c>
       <c r="Y7" t="n">
-        <v>65.8509239226416</v>
+        <v>64.2745366952121</v>
       </c>
       <c r="Z7" t="n">
-        <v>59.8048245508085</v>
+        <v>59.0750193185599</v>
       </c>
       <c r="AA7" t="n">
-        <v>68.3568161832472</v>
+        <v>67.6240444019778</v>
       </c>
       <c r="AB7" t="n">
-        <v>67.3887421214076</v>
+        <v>67.8560541495459</v>
       </c>
       <c r="AC7" t="n">
-        <v>56.7937802884955</v>
+        <v>56.8138542496747</v>
       </c>
       <c r="AD7" t="n">
-        <v>67.1759658731381</v>
+        <v>67.5419926029309</v>
       </c>
       <c r="AE7" t="n">
-        <v>61.9147554004172</v>
+        <v>63.9096839092319</v>
       </c>
       <c r="AF7" t="n">
-        <v>56.2071148195302</v>
+        <v>56.5576292197071</v>
       </c>
       <c r="AG7" t="n">
-        <v>68.8014009257705</v>
+        <v>66.8537262438858</v>
       </c>
       <c r="AH7" t="n">
-        <v>58.3382012825812</v>
+        <v>61.320449931597</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="n">
+        <v>62.9902645591939</v>
+      </c>
+      <c r="C8" t="n">
+        <v>71.4854261989013</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67.2489994772607</v>
+      </c>
+      <c r="E8" t="n">
+        <v>68.5295098122922</v>
+      </c>
+      <c r="F8" t="n">
+        <v>58.4835429266346</v>
+      </c>
+      <c r="G8" t="n">
+        <v>67.7748718042163</v>
+      </c>
+      <c r="H8" t="n">
+        <v>64.5811033995752</v>
+      </c>
+      <c r="I8" t="n">
+        <v>49.2608712520741</v>
+      </c>
+      <c r="J8" t="n">
+        <v>65.7806715292485</v>
+      </c>
+      <c r="K8" t="n">
+        <v>73.0755096221725</v>
+      </c>
+      <c r="L8" t="n">
+        <v>64.6848237305425</v>
+      </c>
+      <c r="M8" t="n">
+        <v>61.0650867583511</v>
+      </c>
+      <c r="N8" t="n">
+        <v>48.9214969888244</v>
+      </c>
+      <c r="O8" t="n">
+        <v>61.886875215865</v>
+      </c>
+      <c r="P8" t="n">
+        <v>69.0230767350588</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>61.6719672881869</v>
+      </c>
+      <c r="R8" t="n">
+        <v>58.7636984877997</v>
+      </c>
+      <c r="S8" t="n">
+        <v>60.4154869440642</v>
+      </c>
+      <c r="T8" t="n">
+        <v>62.6386366961561</v>
+      </c>
+      <c r="U8" t="n">
+        <v>71.103167243222</v>
+      </c>
+      <c r="V8" t="n">
+        <v>46.9362118022844</v>
+      </c>
+      <c r="W8" t="n">
+        <v>57.5523627169825</v>
+      </c>
+      <c r="X8" t="n">
+        <v>69.1679217463767</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>63.9401645418394</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>59.9441887936483</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>66.7639756461413</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>65.8649958330234</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>58.2217159157468</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>66.3813696828444</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>64.9813104029866</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>52.3784582081241</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>66.3038318947792</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>61.9834212436804</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/09_data_web/00_ips.xlsx
+++ b/03_ips_clean/09_data_web/00_ips.xlsx
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>62.9112727435981</v>
+        <v>62.7519221624131</v>
       </c>
       <c r="C2" t="n">
-        <v>68.4083076309796</v>
+        <v>68.9693674328285</v>
       </c>
       <c r="D2" t="n">
-        <v>67.8246060194726</v>
+        <v>67.9299502836024</v>
       </c>
       <c r="E2" t="n">
-        <v>68.3926379131309</v>
+        <v>67.6969185226078</v>
       </c>
       <c r="F2" t="n">
-        <v>61.8691351877818</v>
+        <v>60.0027005010443</v>
       </c>
       <c r="G2" t="n">
-        <v>64.6431864631413</v>
+        <v>64.9679414687433</v>
       </c>
       <c r="H2" t="n">
-        <v>68.4512154400439</v>
+        <v>67.3320762727385</v>
       </c>
       <c r="I2" t="n">
-        <v>48.9858255011325</v>
+        <v>50.1379209218626</v>
       </c>
       <c r="J2" t="n">
-        <v>63.1260457794123</v>
+        <v>65.0044212240001</v>
       </c>
       <c r="K2" t="n">
-        <v>72.4804888274682</v>
+        <v>73.2358390874074</v>
       </c>
       <c r="L2" t="n">
-        <v>63.9085344153749</v>
+        <v>64.1797636337525</v>
       </c>
       <c r="M2" t="n">
-        <v>61.1051664682504</v>
+        <v>60.8328008357138</v>
       </c>
       <c r="N2" t="n">
-        <v>47.9566173279924</v>
+        <v>47.3468939868095</v>
       </c>
       <c r="O2" t="n">
-        <v>61.3554667478314</v>
+        <v>59.9913792999299</v>
       </c>
       <c r="P2" t="n">
-        <v>67.6512369344701</v>
+        <v>68.2271907058236</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.4106474757415</v>
+        <v>64.6219922380424</v>
       </c>
       <c r="R2" t="n">
-        <v>59.1907906237604</v>
+        <v>58.6716081067249</v>
       </c>
       <c r="S2" t="n">
-        <v>61.0525772363417</v>
+        <v>59.5689715004506</v>
       </c>
       <c r="T2" t="n">
-        <v>63.009678598768</v>
+        <v>61.216764902095</v>
       </c>
       <c r="U2" t="n">
-        <v>71.0813846771324</v>
+        <v>70.9416982442831</v>
       </c>
       <c r="V2" t="n">
-        <v>50.7984661312736</v>
+        <v>49.2972324803533</v>
       </c>
       <c r="W2" t="n">
-        <v>59.4170977663499</v>
+        <v>58.9102083379187</v>
       </c>
       <c r="X2" t="n">
-        <v>68.9311810548839</v>
+        <v>69.0829438943684</v>
       </c>
       <c r="Y2" t="n">
-        <v>65.462289779292</v>
+        <v>65.9980078784873</v>
       </c>
       <c r="Z2" t="n">
-        <v>60.830961860868</v>
+        <v>60.9355976536149</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.226173442449</v>
+        <v>64.5681338820844</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.0939187395318</v>
+        <v>67.1864228706555</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.0181715924039</v>
+        <v>56.2376978497924</v>
       </c>
       <c r="AD2" t="n">
-        <v>64.8205891394874</v>
+        <v>64.6928988986256</v>
       </c>
       <c r="AE2" t="n">
-        <v>64.5758155750695</v>
+        <v>65.7713669176095</v>
       </c>
       <c r="AF2" t="n">
-        <v>55.9760345467434</v>
+        <v>55.6693945208954</v>
       </c>
       <c r="AG2" t="n">
-        <v>62.8694180127502</v>
+        <v>60.8750269537854</v>
       </c>
       <c r="AH2" t="n">
-        <v>61.6436345612737</v>
+        <v>61.898049110385</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>63.2733216919274</v>
+        <v>63.1176181068311</v>
       </c>
       <c r="C3" t="n">
-        <v>69.4022740631121</v>
+        <v>70.2761425756682</v>
       </c>
       <c r="D3" t="n">
-        <v>69.5377882736111</v>
+        <v>69.3598170555964</v>
       </c>
       <c r="E3" t="n">
-        <v>69.2342100736471</v>
+        <v>68.9837025817799</v>
       </c>
       <c r="F3" t="n">
-        <v>61.646004463774</v>
+        <v>60.442498539902</v>
       </c>
       <c r="G3" t="n">
-        <v>67.1792596123571</v>
+        <v>67.1470623573077</v>
       </c>
       <c r="H3" t="n">
-        <v>65.3743121511665</v>
+        <v>63.8229704112901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.1775337852964</v>
+        <v>51.8761415676424</v>
       </c>
       <c r="J3" t="n">
-        <v>66.4539949047299</v>
+        <v>67.117793991941</v>
       </c>
       <c r="K3" t="n">
-        <v>73.1575784309442</v>
+        <v>75.2633276943562</v>
       </c>
       <c r="L3" t="n">
-        <v>66.4188765957618</v>
+        <v>65.7144357026441</v>
       </c>
       <c r="M3" t="n">
-        <v>62.7844003117857</v>
+        <v>62.4870071838855</v>
       </c>
       <c r="N3" t="n">
-        <v>47.6060375447101</v>
+        <v>47.2914026862027</v>
       </c>
       <c r="O3" t="n">
-        <v>63.1238927417036</v>
+        <v>61.2778046399135</v>
       </c>
       <c r="P3" t="n">
-        <v>68.4933401862149</v>
+        <v>69.0188105200797</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.0500226263433</v>
+        <v>63.8608116557551</v>
       </c>
       <c r="R3" t="n">
-        <v>59.765185508226</v>
+        <v>59.8406172206814</v>
       </c>
       <c r="S3" t="n">
-        <v>61.8277058829646</v>
+        <v>60.9518704028307</v>
       </c>
       <c r="T3" t="n">
-        <v>64.9952763145592</v>
+        <v>63.9272420132235</v>
       </c>
       <c r="U3" t="n">
-        <v>70.1020305206106</v>
+        <v>69.4518561069516</v>
       </c>
       <c r="V3" t="n">
-        <v>49.6076692710178</v>
+        <v>48.1096251419095</v>
       </c>
       <c r="W3" t="n">
-        <v>60.1659188354282</v>
+        <v>59.642167410978</v>
       </c>
       <c r="X3" t="n">
-        <v>67.6507386041286</v>
+        <v>67.0248034813607</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.6987435280676</v>
+        <v>66.7227055649021</v>
       </c>
       <c r="Z3" t="n">
-        <v>61.0227864309516</v>
+        <v>61.2782959486144</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.1122966657299</v>
+        <v>65.2328465378695</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.5034507012919</v>
+        <v>67.212455416601</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.952558101591</v>
+        <v>57.5530192286455</v>
       </c>
       <c r="AD3" t="n">
-        <v>64.9486849813094</v>
+        <v>64.9295411283022</v>
       </c>
       <c r="AE3" t="n">
-        <v>62.9447457032264</v>
+        <v>63.4149387023507</v>
       </c>
       <c r="AF3" t="n">
-        <v>54.8667768151757</v>
+        <v>55.1125702083356</v>
       </c>
       <c r="AG3" t="n">
-        <v>65.0514947519085</v>
+        <v>63.1670875507907</v>
       </c>
       <c r="AH3" t="n">
-        <v>62.1343437073832</v>
+        <v>62.5528491360961</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>63.8428508187982</v>
+        <v>63.6728277957865</v>
       </c>
       <c r="C4" t="n">
-        <v>69.3713136618093</v>
+        <v>70.169256039241</v>
       </c>
       <c r="D4" t="n">
-        <v>68.3997402275718</v>
+        <v>68.6273936534331</v>
       </c>
       <c r="E4" t="n">
-        <v>67.5680830350406</v>
+        <v>67.3720716598265</v>
       </c>
       <c r="F4" t="n">
-        <v>62.074706683872</v>
+        <v>61.3028670902623</v>
       </c>
       <c r="G4" t="n">
-        <v>67.5399723207137</v>
+        <v>67.4877157977585</v>
       </c>
       <c r="H4" t="n">
-        <v>65.5995637409451</v>
+        <v>65.5341555413529</v>
       </c>
       <c r="I4" t="n">
-        <v>52.1526000262224</v>
+        <v>52.7197475161821</v>
       </c>
       <c r="J4" t="n">
-        <v>66.1782396835189</v>
+        <v>66.7113592594561</v>
       </c>
       <c r="K4" t="n">
-        <v>73.457959186709</v>
+        <v>74.4990355227043</v>
       </c>
       <c r="L4" t="n">
-        <v>65.8073562980271</v>
+        <v>65.6922589457911</v>
       </c>
       <c r="M4" t="n">
-        <v>63.3398415372028</v>
+        <v>63.2096686785049</v>
       </c>
       <c r="N4" t="n">
-        <v>48.6076176225986</v>
+        <v>47.844064342422</v>
       </c>
       <c r="O4" t="n">
-        <v>62.3155702400613</v>
+        <v>61.1869711792459</v>
       </c>
       <c r="P4" t="n">
-        <v>68.7540866782287</v>
+        <v>69.2593987752057</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.9454998224274</v>
+        <v>66.2392464195544</v>
       </c>
       <c r="R4" t="n">
-        <v>60.5582980716494</v>
+        <v>59.7646349265833</v>
       </c>
       <c r="S4" t="n">
-        <v>62.3376625303798</v>
+        <v>61.8702023470829</v>
       </c>
       <c r="T4" t="n">
-        <v>64.1497949686532</v>
+        <v>62.8779877822749</v>
       </c>
       <c r="U4" t="n">
-        <v>69.9571124367025</v>
+        <v>70.1700583562464</v>
       </c>
       <c r="V4" t="n">
-        <v>50.5275467004561</v>
+        <v>49.5706748625964</v>
       </c>
       <c r="W4" t="n">
-        <v>61.3096952464842</v>
+        <v>61.3108493996885</v>
       </c>
       <c r="X4" t="n">
-        <v>68.638579165693</v>
+        <v>68.5153485830992</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.9585001669549</v>
+        <v>66.9050877194691</v>
       </c>
       <c r="Z4" t="n">
-        <v>60.5821162505057</v>
+        <v>60.6044363868955</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.3329826885601</v>
+        <v>67.9885750615377</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.9785845183492</v>
+        <v>68.6775532140522</v>
       </c>
       <c r="AC4" t="n">
-        <v>57.1283017261832</v>
+        <v>58.0005563061019</v>
       </c>
       <c r="AD4" t="n">
-        <v>64.6932486969748</v>
+        <v>64.6709440213688</v>
       </c>
       <c r="AE4" t="n">
-        <v>63.5217866377246</v>
+        <v>64.2374695434276</v>
       </c>
       <c r="AF4" t="n">
-        <v>56.1997051206807</v>
+        <v>55.5325613260285</v>
       </c>
       <c r="AG4" t="n">
-        <v>66.8785155430037</v>
+        <v>65.1538996287214</v>
       </c>
       <c r="AH4" t="n">
-        <v>62.0817605543559</v>
+        <v>62.0719831026945</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>64.7847632767447</v>
+        <v>64.4797547751757</v>
       </c>
       <c r="C5" t="n">
-        <v>71.2890162726386</v>
+        <v>71.8963995803603</v>
       </c>
       <c r="D5" t="n">
-        <v>68.2752976669257</v>
+        <v>68.4568115668806</v>
       </c>
       <c r="E5" t="n">
-        <v>69.6524851831441</v>
+        <v>70.0958058708661</v>
       </c>
       <c r="F5" t="n">
-        <v>61.7696184634334</v>
+        <v>60.7048842456214</v>
       </c>
       <c r="G5" t="n">
-        <v>68.645970659714</v>
+        <v>68.7859145637207</v>
       </c>
       <c r="H5" t="n">
-        <v>67.0331961132112</v>
+        <v>66.1096911829381</v>
       </c>
       <c r="I5" t="n">
-        <v>52.0198168534676</v>
+        <v>52.650962508559</v>
       </c>
       <c r="J5" t="n">
-        <v>67.4463087318103</v>
+        <v>67.2268562275498</v>
       </c>
       <c r="K5" t="n">
-        <v>75.7972207403927</v>
+        <v>76.4440908314461</v>
       </c>
       <c r="L5" t="n">
-        <v>65.8455973162486</v>
+        <v>65.324099577812</v>
       </c>
       <c r="M5" t="n">
-        <v>63.9012201214572</v>
+        <v>64.091821033627</v>
       </c>
       <c r="N5" t="n">
-        <v>50.2886361583485</v>
+        <v>49.9671401564979</v>
       </c>
       <c r="O5" t="n">
-        <v>63.3698685431154</v>
+        <v>62.2025265501948</v>
       </c>
       <c r="P5" t="n">
-        <v>69.8138673479444</v>
+        <v>70.6676574677552</v>
       </c>
       <c r="Q5" t="n">
-        <v>66.1609469116824</v>
+        <v>66.1025030230667</v>
       </c>
       <c r="R5" t="n">
-        <v>61.9623876240963</v>
+        <v>61.2438373777661</v>
       </c>
       <c r="S5" t="n">
-        <v>64.0124927560244</v>
+        <v>63.1755846143681</v>
       </c>
       <c r="T5" t="n">
-        <v>64.92252609672</v>
+        <v>62.0069067670566</v>
       </c>
       <c r="U5" t="n">
-        <v>72.3216828981459</v>
+        <v>72.7233710106192</v>
       </c>
       <c r="V5" t="n">
-        <v>52.6173252202592</v>
+        <v>51.1477978884516</v>
       </c>
       <c r="W5" t="n">
-        <v>62.9665030806288</v>
+        <v>62.7541962418013</v>
       </c>
       <c r="X5" t="n">
-        <v>69.211051392309</v>
+        <v>68.5279563434063</v>
       </c>
       <c r="Y5" t="n">
-        <v>66.9330139211528</v>
+        <v>66.9596971988648</v>
       </c>
       <c r="Z5" t="n">
-        <v>62.2239091989299</v>
+        <v>62.5605253652454</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.3519716546026</v>
+        <v>66.7459971604194</v>
       </c>
       <c r="AB5" t="n">
-        <v>70.3766423499627</v>
+        <v>70.1035396119032</v>
       </c>
       <c r="AC5" t="n">
-        <v>56.7687544451726</v>
+        <v>57.1682848041567</v>
       </c>
       <c r="AD5" t="n">
-        <v>67.3145357503256</v>
+        <v>67.5393564244136</v>
       </c>
       <c r="AE5" t="n">
-        <v>65.4505707351277</v>
+        <v>65.8381217482245</v>
       </c>
       <c r="AF5" t="n">
-        <v>57.1211734851899</v>
+        <v>56.3072415176577</v>
       </c>
       <c r="AG5" t="n">
-        <v>66.6523074258003</v>
+        <v>64.2571664342607</v>
       </c>
       <c r="AH5" t="n">
-        <v>63.8115719347009</v>
+        <v>63.5483960079455</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>64.5466043990665</v>
+        <v>64.9516321591989</v>
       </c>
       <c r="C6" t="n">
-        <v>71.9477917654578</v>
+        <v>72.8719005939318</v>
       </c>
       <c r="D6" t="n">
-        <v>68.8494068854124</v>
+        <v>69.6173641339471</v>
       </c>
       <c r="E6" t="n">
-        <v>69.612344267631</v>
+        <v>69.2233061661591</v>
       </c>
       <c r="F6" t="n">
-        <v>61.5008390719652</v>
+        <v>62.0362607159223</v>
       </c>
       <c r="G6" t="n">
-        <v>69.0759893974398</v>
+        <v>70.0828492158909</v>
       </c>
       <c r="H6" t="n">
-        <v>64.7624444667629</v>
+        <v>64.7663746357986</v>
       </c>
       <c r="I6" t="n">
-        <v>52.1425487608408</v>
+        <v>53.6582692877344</v>
       </c>
       <c r="J6" t="n">
-        <v>66.8400890297081</v>
+        <v>67.2834293496758</v>
       </c>
       <c r="K6" t="n">
-        <v>75.0922388430518</v>
+        <v>76.3623997822443</v>
       </c>
       <c r="L6" t="n">
-        <v>66.062016208842</v>
+        <v>65.038893808989</v>
       </c>
       <c r="M6" t="n">
-        <v>62.8857305942649</v>
+        <v>63.5780646223512</v>
       </c>
       <c r="N6" t="n">
-        <v>48.4199300796339</v>
+        <v>48.1948439788579</v>
       </c>
       <c r="O6" t="n">
-        <v>64.0848266982137</v>
+        <v>63.2801243924776</v>
       </c>
       <c r="P6" t="n">
-        <v>70.0833978788946</v>
+        <v>70.3525301012783</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.5845572614408</v>
+        <v>65.9599612856887</v>
       </c>
       <c r="R6" t="n">
-        <v>61.4546525721423</v>
+        <v>61.176148219003</v>
       </c>
       <c r="S6" t="n">
-        <v>63.9810510161127</v>
+        <v>63.5218443589754</v>
       </c>
       <c r="T6" t="n">
-        <v>65.6575796012833</v>
+        <v>64.7910758376773</v>
       </c>
       <c r="U6" t="n">
-        <v>72.785406627737</v>
+        <v>73.1852212820371</v>
       </c>
       <c r="V6" t="n">
-        <v>52.2387719460771</v>
+        <v>52.1769045427108</v>
       </c>
       <c r="W6" t="n">
-        <v>62.3053971758256</v>
+        <v>63.0506838694878</v>
       </c>
       <c r="X6" t="n">
-        <v>69.2066223520965</v>
+        <v>69.8055243518399</v>
       </c>
       <c r="Y6" t="n">
-        <v>66.1311839166663</v>
+        <v>66.7258844389024</v>
       </c>
       <c r="Z6" t="n">
-        <v>62.2402470891421</v>
+        <v>62.66501198325</v>
       </c>
       <c r="AA6" t="n">
-        <v>68.6962587477745</v>
+        <v>67.9671593086971</v>
       </c>
       <c r="AB6" t="n">
-        <v>69.4776828845307</v>
+        <v>69.4502827059452</v>
       </c>
       <c r="AC6" t="n">
-        <v>57.5289321154745</v>
+        <v>58.0365305681586</v>
       </c>
       <c r="AD6" t="n">
-        <v>68.3260881122555</v>
+        <v>69.3335052524885</v>
       </c>
       <c r="AE6" t="n">
-        <v>64.8999269835291</v>
+        <v>64.8885428527351</v>
       </c>
       <c r="AF6" t="n">
-        <v>56.3051191682489</v>
+        <v>55.473457354847</v>
       </c>
       <c r="AG6" t="n">
-        <v>68.3796348610558</v>
+        <v>66.8353399887455</v>
       </c>
       <c r="AH6" t="n">
-        <v>63.7394874500864</v>
+        <v>64.3771980300324</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,103 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>64.1254472181405</v>
+        <v>63.6397129878025</v>
       </c>
       <c r="C7" t="n">
-        <v>70.701784477164</v>
+        <v>69.8971580699424</v>
       </c>
       <c r="D7" t="n">
-        <v>68.6705100058156</v>
+        <v>68.4763984088974</v>
       </c>
       <c r="E7" t="n">
-        <v>69.7264445700748</v>
+        <v>69.7481341637085</v>
       </c>
       <c r="F7" t="n">
-        <v>61.1437990222482</v>
+        <v>59.6243458260344</v>
       </c>
       <c r="G7" t="n">
-        <v>67.772238464239</v>
+        <v>67.795892456013</v>
       </c>
       <c r="H7" t="n">
-        <v>66.3510643187947</v>
+        <v>66.662247729802</v>
       </c>
       <c r="I7" t="n">
-        <v>51.710675475478</v>
+        <v>53.4356961916632</v>
       </c>
       <c r="J7" t="n">
-        <v>64.2665856970339</v>
+        <v>62.5403014747745</v>
       </c>
       <c r="K7" t="n">
-        <v>72.2821832558604</v>
+        <v>73.4038638909273</v>
       </c>
       <c r="L7" t="n">
-        <v>67.0520941034709</v>
+        <v>65.770786802538</v>
       </c>
       <c r="M7" t="n">
-        <v>61.3452680460049</v>
+        <v>61.1442190774148</v>
       </c>
       <c r="N7" t="n">
-        <v>49.862546086195</v>
+        <v>49.6476765845522</v>
       </c>
       <c r="O7" t="n">
-        <v>64.6367587964371</v>
+        <v>62.9228709721921</v>
       </c>
       <c r="P7" t="n">
-        <v>69.2980604181851</v>
+        <v>69.1881281056772</v>
       </c>
       <c r="Q7" t="n">
-        <v>63.7050703461416</v>
+        <v>62.6551150906134</v>
       </c>
       <c r="R7" t="n">
-        <v>60.3966149147667</v>
+        <v>59.9718043284206</v>
       </c>
       <c r="S7" t="n">
-        <v>61.7329106796136</v>
+        <v>59.7738655063472</v>
       </c>
       <c r="T7" t="n">
-        <v>64.1030478744023</v>
+        <v>63.4124582725424</v>
       </c>
       <c r="U7" t="n">
-        <v>72.9040634034288</v>
+        <v>72.3930699374465</v>
       </c>
       <c r="V7" t="n">
-        <v>50.2477883610117</v>
+        <v>49.9067618441582</v>
       </c>
       <c r="W7" t="n">
-        <v>60.4174779758752</v>
+        <v>60.5437817461491</v>
       </c>
       <c r="X7" t="n">
-        <v>71.1145483045147</v>
+        <v>70.9998627057</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.2745366952121</v>
+        <v>63.6675853795835</v>
       </c>
       <c r="Z7" t="n">
-        <v>59.0750193185599</v>
+        <v>58.1711101452428</v>
       </c>
       <c r="AA7" t="n">
-        <v>67.6240444019778</v>
+        <v>65.9635295083983</v>
       </c>
       <c r="AB7" t="n">
-        <v>67.8560541495459</v>
+        <v>66.2382815532222</v>
       </c>
       <c r="AC7" t="n">
-        <v>56.8138542496747</v>
+        <v>56.4339414089542</v>
       </c>
       <c r="AD7" t="n">
-        <v>67.5419926029309</v>
+        <v>66.5816300574965</v>
       </c>
       <c r="AE7" t="n">
-        <v>63.9096839092319</v>
+        <v>64.1517683884334</v>
       </c>
       <c r="AF7" t="n">
-        <v>56.5576292197071</v>
+        <v>56.4124473981501</v>
       </c>
       <c r="AG7" t="n">
-        <v>66.8537262438858</v>
+        <v>65.1396351255088</v>
       </c>
       <c r="AH7" t="n">
-        <v>61.320449931597</v>
+        <v>60.1250097568869</v>
       </c>
     </row>
     <row r="8">
@@ -1178,103 +1178,207 @@
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>62.9902645591939</v>
+        <v>62.9093910180057</v>
       </c>
       <c r="C8" t="n">
-        <v>71.4854261989013</v>
+        <v>71.53001521266</v>
       </c>
       <c r="D8" t="n">
-        <v>67.2489994772607</v>
+        <v>68.3945161776434</v>
       </c>
       <c r="E8" t="n">
-        <v>68.5295098122922</v>
+        <v>67.9416770707882</v>
       </c>
       <c r="F8" t="n">
-        <v>58.4835429266346</v>
+        <v>59.5170992910166</v>
       </c>
       <c r="G8" t="n">
-        <v>67.7748718042163</v>
+        <v>68.5859844103808</v>
       </c>
       <c r="H8" t="n">
-        <v>64.5811033995752</v>
+        <v>64.6026504924429</v>
       </c>
       <c r="I8" t="n">
-        <v>49.2608712520741</v>
+        <v>53.2824161506211</v>
       </c>
       <c r="J8" t="n">
-        <v>65.7806715292485</v>
+        <v>66.2263069194289</v>
       </c>
       <c r="K8" t="n">
-        <v>73.0755096221725</v>
+        <v>74.4577207159395</v>
       </c>
       <c r="L8" t="n">
-        <v>64.6848237305425</v>
+        <v>64.1207255545845</v>
       </c>
       <c r="M8" t="n">
-        <v>61.0650867583511</v>
+        <v>60.9788699524381</v>
       </c>
       <c r="N8" t="n">
-        <v>48.9214969888244</v>
+        <v>49.4686823558365</v>
       </c>
       <c r="O8" t="n">
-        <v>61.886875215865</v>
+        <v>60.6315611797836</v>
       </c>
       <c r="P8" t="n">
-        <v>69.0230767350588</v>
+        <v>68.7940076072074</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.6719672881869</v>
+        <v>61.7069180893062</v>
       </c>
       <c r="R8" t="n">
-        <v>58.7636984877997</v>
+        <v>58.282819297013</v>
       </c>
       <c r="S8" t="n">
-        <v>60.4154869440642</v>
+        <v>58.9734376103798</v>
       </c>
       <c r="T8" t="n">
-        <v>62.6386366961561</v>
+        <v>63.8153346140271</v>
       </c>
       <c r="U8" t="n">
-        <v>71.103167243222</v>
+        <v>71.0123091228141</v>
       </c>
       <c r="V8" t="n">
-        <v>46.9362118022844</v>
+        <v>48.0105613924784</v>
       </c>
       <c r="W8" t="n">
-        <v>57.5523627169825</v>
+        <v>57.8521470786578</v>
       </c>
       <c r="X8" t="n">
-        <v>69.1679217463767</v>
+        <v>68.4610478423605</v>
       </c>
       <c r="Y8" t="n">
-        <v>63.9401645418394</v>
+        <v>64.8507229604468</v>
       </c>
       <c r="Z8" t="n">
-        <v>59.9441887936483</v>
+        <v>59.8659069293975</v>
       </c>
       <c r="AA8" t="n">
-        <v>66.7639756461413</v>
+        <v>65.5833205265798</v>
       </c>
       <c r="AB8" t="n">
-        <v>65.8649958330234</v>
+        <v>65.2567057131721</v>
       </c>
       <c r="AC8" t="n">
-        <v>58.2217159157468</v>
+        <v>59.3531107458096</v>
       </c>
       <c r="AD8" t="n">
-        <v>66.3813696828444</v>
+        <v>66.5675539916475</v>
       </c>
       <c r="AE8" t="n">
-        <v>64.9813104029866</v>
+        <v>64.0521706455442</v>
       </c>
       <c r="AF8" t="n">
-        <v>52.3784582081241</v>
+        <v>53.3207092762407</v>
       </c>
       <c r="AG8" t="n">
-        <v>66.3038318947792</v>
+        <v>64.8451748712135</v>
       </c>
       <c r="AH8" t="n">
-        <v>61.9834212436804</v>
+        <v>61.3750582965534</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B9" t="n">
+        <v>65.6412805379704</v>
+      </c>
+      <c r="C9" t="n">
+        <v>74.4601374602496</v>
+      </c>
+      <c r="D9" t="n">
+        <v>70.571408691792</v>
+      </c>
+      <c r="E9" t="n">
+        <v>72.1049245383426</v>
+      </c>
+      <c r="F9" t="n">
+        <v>62.5388887323743</v>
+      </c>
+      <c r="G9" t="n">
+        <v>71.1754561696032</v>
+      </c>
+      <c r="H9" t="n">
+        <v>66.1240491242779</v>
+      </c>
+      <c r="I9" t="n">
+        <v>56.0532267550067</v>
+      </c>
+      <c r="J9" t="n">
+        <v>68.2223854242121</v>
+      </c>
+      <c r="K9" t="n">
+        <v>78.8714017370016</v>
+      </c>
+      <c r="L9" t="n">
+        <v>65.3603638112252</v>
+      </c>
+      <c r="M9" t="n">
+        <v>64.7267655198619</v>
+      </c>
+      <c r="N9" t="n">
+        <v>50.8641172748225</v>
+      </c>
+      <c r="O9" t="n">
+        <v>63.3199007426013</v>
+      </c>
+      <c r="P9" t="n">
+        <v>72.1202207919268</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>67.5316902893287</v>
+      </c>
+      <c r="R9" t="n">
+        <v>62.85416904997</v>
+      </c>
+      <c r="S9" t="n">
+        <v>63.6290152548298</v>
+      </c>
+      <c r="T9" t="n">
+        <v>65.2348712810474</v>
+      </c>
+      <c r="U9" t="n">
+        <v>72.4384885378722</v>
+      </c>
+      <c r="V9" t="n">
+        <v>51.9336354508393</v>
+      </c>
+      <c r="W9" t="n">
+        <v>63.6596536722011</v>
+      </c>
+      <c r="X9" t="n">
+        <v>71.4744843350892</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>68.7704491051174</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>62.8745077528354</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>71.4478799728546</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>67.0455891665849</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>60.7262925694329</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>70.4479915555535</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>65.6984141569821</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>56.485321841401</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>69.1079614094076</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>64.7952630120259</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/09_data_web/00_ips.xlsx
+++ b/03_ips_clean/09_data_web/00_ips.xlsx
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>62.7519221624131</v>
+        <v>60.9030773814053</v>
       </c>
       <c r="C2" t="n">
-        <v>68.9693674328285</v>
+        <v>68.249663250929</v>
       </c>
       <c r="D2" t="n">
-        <v>67.9299502836024</v>
+        <v>65.3533672234841</v>
       </c>
       <c r="E2" t="n">
-        <v>67.6969185226078</v>
+        <v>64.6883635348866</v>
       </c>
       <c r="F2" t="n">
-        <v>60.0027005010443</v>
+        <v>61.0564523571609</v>
       </c>
       <c r="G2" t="n">
-        <v>64.9679414687433</v>
+        <v>63.0097223702199</v>
       </c>
       <c r="H2" t="n">
-        <v>67.3320762727385</v>
+        <v>66.2095849806513</v>
       </c>
       <c r="I2" t="n">
-        <v>50.1379209218626</v>
+        <v>49.4238313708461</v>
       </c>
       <c r="J2" t="n">
-        <v>65.0044212240001</v>
+        <v>61.6725325006392</v>
       </c>
       <c r="K2" t="n">
-        <v>73.2358390874074</v>
+        <v>68.7321466818965</v>
       </c>
       <c r="L2" t="n">
-        <v>64.1797636337525</v>
+        <v>61.7284022533004</v>
       </c>
       <c r="M2" t="n">
-        <v>60.8328008357138</v>
+        <v>60.2020834437839</v>
       </c>
       <c r="N2" t="n">
-        <v>47.3468939868095</v>
+        <v>46.966838777858</v>
       </c>
       <c r="O2" t="n">
-        <v>59.9913792999299</v>
+        <v>59.2625363778989</v>
       </c>
       <c r="P2" t="n">
-        <v>68.2271907058236</v>
+        <v>65.5291344251081</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.6219922380424</v>
+        <v>61.1127131687139</v>
       </c>
       <c r="R2" t="n">
-        <v>58.6716081067249</v>
+        <v>57.187977725597</v>
       </c>
       <c r="S2" t="n">
-        <v>59.5689715004506</v>
+        <v>58.2970445245033</v>
       </c>
       <c r="T2" t="n">
-        <v>61.216764902095</v>
+        <v>61.483762026439</v>
       </c>
       <c r="U2" t="n">
-        <v>70.9416982442831</v>
+        <v>68.7565056603933</v>
       </c>
       <c r="V2" t="n">
-        <v>49.2972324803533</v>
+        <v>49.8967808822155</v>
       </c>
       <c r="W2" t="n">
-        <v>58.9102083379187</v>
+        <v>57.6210608128011</v>
       </c>
       <c r="X2" t="n">
-        <v>69.0829438943684</v>
+        <v>68.6292483883767</v>
       </c>
       <c r="Y2" t="n">
-        <v>65.9980078784873</v>
+        <v>64.0837913717894</v>
       </c>
       <c r="Z2" t="n">
-        <v>60.9355976536149</v>
+        <v>61.2117884697484</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.5681338820844</v>
+        <v>62.413743420267</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.1864228706555</v>
+        <v>65.5309073699353</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.2376978497924</v>
+        <v>54.025075689594</v>
       </c>
       <c r="AD2" t="n">
-        <v>64.6928988986256</v>
+        <v>62.2123757328503</v>
       </c>
       <c r="AE2" t="n">
-        <v>65.7713669176095</v>
+        <v>61.3348306151904</v>
       </c>
       <c r="AF2" t="n">
-        <v>55.6693945208954</v>
+        <v>54.5208884363757</v>
       </c>
       <c r="AG2" t="n">
-        <v>60.8750269537854</v>
+        <v>63.0179075261856</v>
       </c>
       <c r="AH2" t="n">
-        <v>61.898049110385</v>
+        <v>60.7175193670189</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>63.1176181068311</v>
+        <v>61.9372899295806</v>
       </c>
       <c r="C3" t="n">
-        <v>70.2761425756682</v>
+        <v>69.2825580028766</v>
       </c>
       <c r="D3" t="n">
-        <v>69.3598170555964</v>
+        <v>67.0717337738672</v>
       </c>
       <c r="E3" t="n">
-        <v>68.9837025817799</v>
+        <v>66.7493526185535</v>
       </c>
       <c r="F3" t="n">
-        <v>60.442498539902</v>
+        <v>61.1652216345155</v>
       </c>
       <c r="G3" t="n">
-        <v>67.1470623573077</v>
+        <v>66.1293786658706</v>
       </c>
       <c r="H3" t="n">
-        <v>63.8229704112901</v>
+        <v>64.1549923831153</v>
       </c>
       <c r="I3" t="n">
-        <v>51.8761415676424</v>
+        <v>51.762764393313</v>
       </c>
       <c r="J3" t="n">
-        <v>67.117793991941</v>
+        <v>64.7188992076036</v>
       </c>
       <c r="K3" t="n">
-        <v>75.2633276943562</v>
+        <v>70.1834470720405</v>
       </c>
       <c r="L3" t="n">
-        <v>65.7144357026441</v>
+        <v>64.1513558130237</v>
       </c>
       <c r="M3" t="n">
-        <v>62.4870071838855</v>
+        <v>61.4620792553107</v>
       </c>
       <c r="N3" t="n">
-        <v>47.2914026862027</v>
+        <v>48.2905421533258</v>
       </c>
       <c r="O3" t="n">
-        <v>61.2778046399135</v>
+        <v>60.663591441289</v>
       </c>
       <c r="P3" t="n">
-        <v>69.0188105200797</v>
+        <v>66.3835129918816</v>
       </c>
       <c r="Q3" t="n">
-        <v>63.8608116557551</v>
+        <v>61.7613662873096</v>
       </c>
       <c r="R3" t="n">
-        <v>59.8406172206814</v>
+        <v>58.698840422068</v>
       </c>
       <c r="S3" t="n">
-        <v>60.9518704028307</v>
+        <v>59.9743735519129</v>
       </c>
       <c r="T3" t="n">
-        <v>63.9272420132235</v>
+        <v>63.2775166714757</v>
       </c>
       <c r="U3" t="n">
-        <v>69.4518561069516</v>
+        <v>68.2914281528349</v>
       </c>
       <c r="V3" t="n">
-        <v>48.1096251419095</v>
+        <v>50.2184562356829</v>
       </c>
       <c r="W3" t="n">
-        <v>59.642167410978</v>
+        <v>58.777681347793</v>
       </c>
       <c r="X3" t="n">
-        <v>67.0248034813607</v>
+        <v>68.1847403941352</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.7227055649021</v>
+        <v>65.0025361843378</v>
       </c>
       <c r="Z3" t="n">
-        <v>61.2782959486144</v>
+        <v>62.0622577955518</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.2328465378695</v>
+        <v>63.4325586454907</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.212455416601</v>
+        <v>66.5120351758781</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.5530192286455</v>
+        <v>56.027121554469</v>
       </c>
       <c r="AD3" t="n">
-        <v>64.9295411283022</v>
+        <v>62.1835309629841</v>
       </c>
       <c r="AE3" t="n">
-        <v>63.4149387023507</v>
+        <v>61.6130776216759</v>
       </c>
       <c r="AF3" t="n">
-        <v>55.1125702083356</v>
+        <v>55.3986305509679</v>
       </c>
       <c r="AG3" t="n">
-        <v>63.1670875507907</v>
+        <v>65.3644278485675</v>
       </c>
       <c r="AH3" t="n">
-        <v>62.5528491360961</v>
+        <v>61.9392802560988</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>63.6728277957865</v>
+        <v>61.9584298882253</v>
       </c>
       <c r="C4" t="n">
-        <v>70.169256039241</v>
+        <v>68.6626765057764</v>
       </c>
       <c r="D4" t="n">
-        <v>68.6273936534331</v>
+        <v>65.9563485995914</v>
       </c>
       <c r="E4" t="n">
-        <v>67.3720716598265</v>
+        <v>64.9779832686781</v>
       </c>
       <c r="F4" t="n">
-        <v>61.3028670902623</v>
+        <v>62.3222078652033</v>
       </c>
       <c r="G4" t="n">
-        <v>67.4877157977585</v>
+        <v>66.5554144649376</v>
       </c>
       <c r="H4" t="n">
-        <v>65.5341555413529</v>
+        <v>64.5004092936109</v>
       </c>
       <c r="I4" t="n">
-        <v>52.7197475161821</v>
+        <v>51.4953756825484</v>
       </c>
       <c r="J4" t="n">
-        <v>66.7113592594561</v>
+        <v>63.0018834383166</v>
       </c>
       <c r="K4" t="n">
-        <v>74.4990355227043</v>
+        <v>69.6602764201004</v>
       </c>
       <c r="L4" t="n">
-        <v>65.6922589457911</v>
+        <v>63.4332057555228</v>
       </c>
       <c r="M4" t="n">
-        <v>63.2096686785049</v>
+        <v>61.278800131168</v>
       </c>
       <c r="N4" t="n">
-        <v>47.844064342422</v>
+        <v>48.9272350708894</v>
       </c>
       <c r="O4" t="n">
-        <v>61.1869711792459</v>
+        <v>59.8908567431876</v>
       </c>
       <c r="P4" t="n">
-        <v>69.2593987752057</v>
+        <v>66.3917458363564</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.2392464195544</v>
+        <v>63.3021932332262</v>
       </c>
       <c r="R4" t="n">
-        <v>59.7646349265833</v>
+        <v>59.4477731142682</v>
       </c>
       <c r="S4" t="n">
-        <v>61.8702023470829</v>
+        <v>60.3790156417292</v>
       </c>
       <c r="T4" t="n">
-        <v>62.8779877822749</v>
+        <v>61.4647495678667</v>
       </c>
       <c r="U4" t="n">
-        <v>70.1700583562464</v>
+        <v>68.2395370734201</v>
       </c>
       <c r="V4" t="n">
-        <v>49.5706748625964</v>
+        <v>51.3360618526015</v>
       </c>
       <c r="W4" t="n">
-        <v>61.3108493996885</v>
+        <v>59.1752596456135</v>
       </c>
       <c r="X4" t="n">
-        <v>68.5153485830992</v>
+        <v>68.3423934964183</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.9050877194691</v>
+        <v>65.4473216065971</v>
       </c>
       <c r="Z4" t="n">
-        <v>60.6044363868955</v>
+        <v>61.2047268706961</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.9885750615377</v>
+        <v>64.422619971819</v>
       </c>
       <c r="AB4" t="n">
-        <v>68.6775532140522</v>
+        <v>66.7532102817085</v>
       </c>
       <c r="AC4" t="n">
-        <v>58.0005563061019</v>
+        <v>55.5933532997805</v>
       </c>
       <c r="AD4" t="n">
-        <v>64.6709440213688</v>
+        <v>61.9755705505412</v>
       </c>
       <c r="AE4" t="n">
-        <v>64.2374695434276</v>
+        <v>61.433330789614</v>
       </c>
       <c r="AF4" t="n">
-        <v>55.5325613260285</v>
+        <v>54.8679288628116</v>
       </c>
       <c r="AG4" t="n">
-        <v>65.1538996287214</v>
+        <v>66.8061772683195</v>
       </c>
       <c r="AH4" t="n">
-        <v>62.0719831026945</v>
+        <v>61.1365923353428</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>64.4797547751757</v>
+        <v>62.65995048412</v>
       </c>
       <c r="C5" t="n">
-        <v>71.8963995803603</v>
+        <v>69.9196617578921</v>
       </c>
       <c r="D5" t="n">
-        <v>68.4568115668806</v>
+        <v>65.7206103228762</v>
       </c>
       <c r="E5" t="n">
-        <v>70.0958058708661</v>
+        <v>66.6925328586448</v>
       </c>
       <c r="F5" t="n">
-        <v>60.7048842456214</v>
+        <v>61.1323919175986</v>
       </c>
       <c r="G5" t="n">
-        <v>68.7859145637207</v>
+        <v>66.8563325250526</v>
       </c>
       <c r="H5" t="n">
-        <v>66.1096911829381</v>
+        <v>65.1492956114207</v>
       </c>
       <c r="I5" t="n">
-        <v>52.650962508559</v>
+        <v>52.2587513684615</v>
       </c>
       <c r="J5" t="n">
-        <v>67.2268562275498</v>
+        <v>63.7132847238969</v>
       </c>
       <c r="K5" t="n">
-        <v>76.4440908314461</v>
+        <v>70.8115686269395</v>
       </c>
       <c r="L5" t="n">
-        <v>65.324099577812</v>
+        <v>63.4926698411589</v>
       </c>
       <c r="M5" t="n">
-        <v>64.091821033627</v>
+        <v>62.0533443460778</v>
       </c>
       <c r="N5" t="n">
-        <v>49.9671401564979</v>
+        <v>50.8188400901582</v>
       </c>
       <c r="O5" t="n">
-        <v>62.2025265501948</v>
+        <v>61.2243633775526</v>
       </c>
       <c r="P5" t="n">
-        <v>70.6676574677552</v>
+        <v>66.8609727849979</v>
       </c>
       <c r="Q5" t="n">
-        <v>66.1025030230667</v>
+        <v>63.4540603571609</v>
       </c>
       <c r="R5" t="n">
-        <v>61.2438373777661</v>
+        <v>60.9456013015186</v>
       </c>
       <c r="S5" t="n">
-        <v>63.1755846143681</v>
+        <v>61.3871298114387</v>
       </c>
       <c r="T5" t="n">
-        <v>62.0069067670566</v>
+        <v>62.2028733080703</v>
       </c>
       <c r="U5" t="n">
-        <v>72.7233710106192</v>
+        <v>69.5797227607882</v>
       </c>
       <c r="V5" t="n">
-        <v>51.1477978884516</v>
+        <v>52.9350219128625</v>
       </c>
       <c r="W5" t="n">
-        <v>62.7541962418013</v>
+        <v>60.204224651319</v>
       </c>
       <c r="X5" t="n">
-        <v>68.5279563434063</v>
+        <v>68.3250465218535</v>
       </c>
       <c r="Y5" t="n">
-        <v>66.9596971988648</v>
+        <v>65.0812807024426</v>
       </c>
       <c r="Z5" t="n">
-        <v>62.5605253652454</v>
+        <v>62.0921436599387</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.7459971604194</v>
+        <v>65.0349239094579</v>
       </c>
       <c r="AB5" t="n">
-        <v>70.1035396119032</v>
+        <v>67.7879491372106</v>
       </c>
       <c r="AC5" t="n">
-        <v>57.1682848041567</v>
+        <v>55.1943641690774</v>
       </c>
       <c r="AD5" t="n">
-        <v>67.5393564244136</v>
+        <v>64.0971186804873</v>
       </c>
       <c r="AE5" t="n">
-        <v>65.8381217482245</v>
+        <v>63.6666266961236</v>
       </c>
       <c r="AF5" t="n">
-        <v>56.3072415176577</v>
+        <v>55.6970685927677</v>
       </c>
       <c r="AG5" t="n">
-        <v>64.2571664342607</v>
+        <v>66.3946387710102</v>
       </c>
       <c r="AH5" t="n">
-        <v>63.5483960079455</v>
+        <v>61.6176593343472</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>64.9516321591989</v>
+        <v>63.0373385906464</v>
       </c>
       <c r="C6" t="n">
-        <v>72.8719005939318</v>
+        <v>70.8048306939206</v>
       </c>
       <c r="D6" t="n">
-        <v>69.6173641339471</v>
+        <v>66.2058278402741</v>
       </c>
       <c r="E6" t="n">
-        <v>69.2233061661591</v>
+        <v>67.3756646565673</v>
       </c>
       <c r="F6" t="n">
-        <v>62.0362607159223</v>
+        <v>62.0904641521317</v>
       </c>
       <c r="G6" t="n">
-        <v>70.0828492158909</v>
+        <v>67.4014917068305</v>
       </c>
       <c r="H6" t="n">
-        <v>64.7663746357986</v>
+        <v>63.8778447578139</v>
       </c>
       <c r="I6" t="n">
-        <v>53.6582692877344</v>
+        <v>52.5566927579995</v>
       </c>
       <c r="J6" t="n">
-        <v>67.2834293496758</v>
+        <v>64.3431607631348</v>
       </c>
       <c r="K6" t="n">
-        <v>76.3623997822443</v>
+        <v>70.0590359273017</v>
       </c>
       <c r="L6" t="n">
-        <v>65.038893808989</v>
+        <v>64.0296312666303</v>
       </c>
       <c r="M6" t="n">
-        <v>63.5780646223512</v>
+        <v>62.3810406491086</v>
       </c>
       <c r="N6" t="n">
-        <v>48.1948439788579</v>
+        <v>49.1264092769138</v>
       </c>
       <c r="O6" t="n">
-        <v>63.2801243924776</v>
+        <v>62.0388628444782</v>
       </c>
       <c r="P6" t="n">
-        <v>70.3525301012783</v>
+        <v>66.6578340915388</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.9599612856887</v>
+        <v>62.5204906306996</v>
       </c>
       <c r="R6" t="n">
-        <v>61.176148219003</v>
+        <v>60.6931453824348</v>
       </c>
       <c r="S6" t="n">
-        <v>63.5218443589754</v>
+        <v>61.2841316660442</v>
       </c>
       <c r="T6" t="n">
-        <v>64.7910758376773</v>
+        <v>63.4679610151139</v>
       </c>
       <c r="U6" t="n">
-        <v>73.1852212820371</v>
+        <v>69.8773829519561</v>
       </c>
       <c r="V6" t="n">
-        <v>52.1769045427108</v>
+        <v>53.7511824101072</v>
       </c>
       <c r="W6" t="n">
-        <v>63.0506838694878</v>
+        <v>60.3605693074266</v>
       </c>
       <c r="X6" t="n">
-        <v>69.8055243518399</v>
+        <v>69.005726285346</v>
       </c>
       <c r="Y6" t="n">
-        <v>66.7258844389024</v>
+        <v>64.038221399961</v>
       </c>
       <c r="Z6" t="n">
-        <v>62.66501198325</v>
+        <v>62.4400472785507</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.9671593086971</v>
+        <v>66.1246918030516</v>
       </c>
       <c r="AB6" t="n">
-        <v>69.4502827059452</v>
+        <v>67.5901198854562</v>
       </c>
       <c r="AC6" t="n">
-        <v>58.0365305681586</v>
+        <v>56.3619283047627</v>
       </c>
       <c r="AD6" t="n">
-        <v>69.3335052524885</v>
+        <v>65.4018399951283</v>
       </c>
       <c r="AE6" t="n">
-        <v>64.8885428527351</v>
+        <v>63.5911338285273</v>
       </c>
       <c r="AF6" t="n">
-        <v>55.473457354847</v>
+        <v>56.0767084672491</v>
       </c>
       <c r="AG6" t="n">
-        <v>66.8353399887455</v>
+        <v>68.0018803844243</v>
       </c>
       <c r="AH6" t="n">
-        <v>64.3771980300324</v>
+        <v>61.5165945132757</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,103 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>63.6397129878025</v>
+        <v>61.3155283249709</v>
       </c>
       <c r="C7" t="n">
-        <v>69.8971580699424</v>
+        <v>68.4035673879518</v>
       </c>
       <c r="D7" t="n">
-        <v>68.4763984088974</v>
+        <v>64.8738403197281</v>
       </c>
       <c r="E7" t="n">
-        <v>69.7481341637085</v>
+        <v>66.9251936188647</v>
       </c>
       <c r="F7" t="n">
-        <v>59.6243458260344</v>
+        <v>60.6673317622281</v>
       </c>
       <c r="G7" t="n">
-        <v>67.795892456013</v>
+        <v>65.1654727330293</v>
       </c>
       <c r="H7" t="n">
-        <v>66.662247729802</v>
+        <v>64.7641541335124</v>
       </c>
       <c r="I7" t="n">
-        <v>53.4356961916632</v>
+        <v>51.9316179927787</v>
       </c>
       <c r="J7" t="n">
-        <v>62.5403014747745</v>
+        <v>61.1078876681686</v>
       </c>
       <c r="K7" t="n">
-        <v>73.4038638909273</v>
+        <v>67.0952119896836</v>
       </c>
       <c r="L7" t="n">
-        <v>65.770786802538</v>
+        <v>63.8424063584388</v>
       </c>
       <c r="M7" t="n">
-        <v>61.1442190774148</v>
+        <v>60.2937701391716</v>
       </c>
       <c r="N7" t="n">
-        <v>49.6476765845522</v>
+        <v>49.5706304983934</v>
       </c>
       <c r="O7" t="n">
-        <v>62.9228709721921</v>
+        <v>61.2377037444691</v>
       </c>
       <c r="P7" t="n">
-        <v>69.1881281056772</v>
+        <v>65.6026411410391</v>
       </c>
       <c r="Q7" t="n">
-        <v>62.6551150906134</v>
+        <v>60.0502647188337</v>
       </c>
       <c r="R7" t="n">
-        <v>59.9718043284206</v>
+        <v>59.1089356041774</v>
       </c>
       <c r="S7" t="n">
-        <v>59.7738655063472</v>
+        <v>59.7322594252123</v>
       </c>
       <c r="T7" t="n">
-        <v>63.4124582725424</v>
+        <v>62.7618960191881</v>
       </c>
       <c r="U7" t="n">
-        <v>72.3930699374465</v>
+        <v>69.4142235022228</v>
       </c>
       <c r="V7" t="n">
-        <v>49.9067618441582</v>
+        <v>51.7752081431831</v>
       </c>
       <c r="W7" t="n">
-        <v>60.5437817461491</v>
+        <v>57.8352513718748</v>
       </c>
       <c r="X7" t="n">
-        <v>70.9998627057</v>
+        <v>69.4440671921402</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.6675853795835</v>
+        <v>62.129491696417</v>
       </c>
       <c r="Z7" t="n">
-        <v>58.1711101452428</v>
+        <v>58.5166422921602</v>
       </c>
       <c r="AA7" t="n">
-        <v>65.9635295083983</v>
+        <v>64.0736541249842</v>
       </c>
       <c r="AB7" t="n">
-        <v>66.2382815532222</v>
+        <v>64.3705160290367</v>
       </c>
       <c r="AC7" t="n">
-        <v>56.4339414089542</v>
+        <v>53.9886149723066</v>
       </c>
       <c r="AD7" t="n">
-        <v>66.5816300574965</v>
+        <v>63.6113716727066</v>
       </c>
       <c r="AE7" t="n">
-        <v>64.1517683884334</v>
+        <v>60.1179088901634</v>
       </c>
       <c r="AF7" t="n">
-        <v>56.4124473981501</v>
+        <v>55.292470753741</v>
       </c>
       <c r="AG7" t="n">
-        <v>65.1396351255088</v>
+        <v>66.4045369025107</v>
       </c>
       <c r="AH7" t="n">
-        <v>60.1250097568869</v>
+        <v>58.5734434273126</v>
       </c>
     </row>
     <row r="8">
@@ -1178,103 +1178,103 @@
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>62.9093910180057</v>
+        <v>61.2400835049676</v>
       </c>
       <c r="C8" t="n">
-        <v>71.53001521266</v>
+        <v>69.7117505680846</v>
       </c>
       <c r="D8" t="n">
-        <v>68.3945161776434</v>
+        <v>65.4470895195295</v>
       </c>
       <c r="E8" t="n">
-        <v>67.9416770707882</v>
+        <v>66.0821479398931</v>
       </c>
       <c r="F8" t="n">
-        <v>59.5170992910166</v>
+        <v>60.9425962081552</v>
       </c>
       <c r="G8" t="n">
-        <v>68.5859844103808</v>
+        <v>67.713006856233</v>
       </c>
       <c r="H8" t="n">
-        <v>64.6026504924429</v>
+        <v>62.4999202996836</v>
       </c>
       <c r="I8" t="n">
-        <v>53.2824161506211</v>
+        <v>52.5530461861155</v>
       </c>
       <c r="J8" t="n">
-        <v>66.2263069194289</v>
+        <v>64.3320404362235</v>
       </c>
       <c r="K8" t="n">
-        <v>74.4577207159395</v>
+        <v>68.6126129589399</v>
       </c>
       <c r="L8" t="n">
-        <v>64.1207255545845</v>
+        <v>63.259053751132</v>
       </c>
       <c r="M8" t="n">
-        <v>60.9788699524381</v>
+        <v>60.0770427925912</v>
       </c>
       <c r="N8" t="n">
-        <v>49.4686823558365</v>
+        <v>50.207328610401</v>
       </c>
       <c r="O8" t="n">
-        <v>60.6315611797836</v>
+        <v>60.0599824128875</v>
       </c>
       <c r="P8" t="n">
-        <v>68.7940076072074</v>
+        <v>65.488020268767</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.7069180893062</v>
+        <v>60.2978836607788</v>
       </c>
       <c r="R8" t="n">
-        <v>58.282819297013</v>
+        <v>58.0844619223555</v>
       </c>
       <c r="S8" t="n">
-        <v>58.9734376103798</v>
+        <v>58.2893442782816</v>
       </c>
       <c r="T8" t="n">
-        <v>63.8153346140271</v>
+        <v>62.8371600298578</v>
       </c>
       <c r="U8" t="n">
-        <v>71.0123091228141</v>
+        <v>68.3944145279573</v>
       </c>
       <c r="V8" t="n">
-        <v>48.0105613924784</v>
+        <v>50.3040128643145</v>
       </c>
       <c r="W8" t="n">
-        <v>57.8521470786578</v>
+        <v>56.1447839260195</v>
       </c>
       <c r="X8" t="n">
-        <v>68.4610478423605</v>
+        <v>67.598916697013</v>
       </c>
       <c r="Y8" t="n">
-        <v>64.8507229604468</v>
+        <v>63.3321473206253</v>
       </c>
       <c r="Z8" t="n">
-        <v>59.8659069293975</v>
+        <v>60.0025489568492</v>
       </c>
       <c r="AA8" t="n">
-        <v>65.5833205265798</v>
+        <v>64.888923126601</v>
       </c>
       <c r="AB8" t="n">
-        <v>65.2567057131721</v>
+        <v>64.7220336713763</v>
       </c>
       <c r="AC8" t="n">
-        <v>59.3531107458096</v>
+        <v>57.0410892591503</v>
       </c>
       <c r="AD8" t="n">
-        <v>66.5675539916475</v>
+        <v>64.4412934581316</v>
       </c>
       <c r="AE8" t="n">
-        <v>64.0521706455442</v>
+        <v>60.8896882331802</v>
       </c>
       <c r="AF8" t="n">
-        <v>53.3207092762407</v>
+        <v>53.9788215920288</v>
       </c>
       <c r="AG8" t="n">
-        <v>64.8451748712135</v>
+        <v>65.6223612999082</v>
       </c>
       <c r="AH8" t="n">
-        <v>61.3750582965534</v>
+        <v>59.5261071747351</v>
       </c>
     </row>
     <row r="9">
@@ -1282,103 +1282,207 @@
         <v>2022</v>
       </c>
       <c r="B9" t="n">
-        <v>65.6412805379704</v>
+        <v>64.9061984438907</v>
       </c>
       <c r="C9" t="n">
-        <v>74.4601374602496</v>
+        <v>72.869305853611</v>
       </c>
       <c r="D9" t="n">
-        <v>70.571408691792</v>
+        <v>68.5591024918048</v>
       </c>
       <c r="E9" t="n">
-        <v>72.1049245383426</v>
+        <v>69.8226025439409</v>
       </c>
       <c r="F9" t="n">
-        <v>62.5388887323743</v>
+        <v>63.7941214806383</v>
       </c>
       <c r="G9" t="n">
-        <v>71.1754561696032</v>
+        <v>70.5479444672478</v>
       </c>
       <c r="H9" t="n">
-        <v>66.1240491242779</v>
+        <v>65.6308042462805</v>
       </c>
       <c r="I9" t="n">
-        <v>56.0532267550067</v>
+        <v>55.3143944647252</v>
       </c>
       <c r="J9" t="n">
-        <v>68.2223854242121</v>
+        <v>66.9234312253667</v>
       </c>
       <c r="K9" t="n">
-        <v>78.8714017370016</v>
+        <v>73.8447405029796</v>
       </c>
       <c r="L9" t="n">
-        <v>65.3603638112252</v>
+        <v>65.0599093970557</v>
       </c>
       <c r="M9" t="n">
-        <v>64.7267655198619</v>
+        <v>63.3496544520941</v>
       </c>
       <c r="N9" t="n">
-        <v>50.8641172748225</v>
+        <v>52.8180741295365</v>
       </c>
       <c r="O9" t="n">
-        <v>63.3199007426013</v>
+        <v>63.6350583414029</v>
       </c>
       <c r="P9" t="n">
-        <v>72.1202207919268</v>
+        <v>69.5580717315877</v>
       </c>
       <c r="Q9" t="n">
-        <v>67.5316902893287</v>
+        <v>65.6731151360002</v>
       </c>
       <c r="R9" t="n">
-        <v>62.85416904997</v>
+        <v>61.9132653391496</v>
       </c>
       <c r="S9" t="n">
-        <v>63.6290152548298</v>
+        <v>62.61521664161</v>
       </c>
       <c r="T9" t="n">
-        <v>65.2348712810474</v>
+        <v>65.6351800457758</v>
       </c>
       <c r="U9" t="n">
-        <v>72.4384885378722</v>
+        <v>71.0943127013309</v>
       </c>
       <c r="V9" t="n">
-        <v>51.9336354508393</v>
+        <v>54.5718492354553</v>
       </c>
       <c r="W9" t="n">
-        <v>63.6596536722011</v>
+        <v>62.0857334212637</v>
       </c>
       <c r="X9" t="n">
-        <v>71.4744843350892</v>
+        <v>71.0994607395937</v>
       </c>
       <c r="Y9" t="n">
-        <v>68.7704491051174</v>
+        <v>67.0617514541269</v>
       </c>
       <c r="Z9" t="n">
-        <v>62.8745077528354</v>
+        <v>63.6904474574312</v>
       </c>
       <c r="AA9" t="n">
-        <v>71.4478799728546</v>
+        <v>69.7641783701931</v>
       </c>
       <c r="AB9" t="n">
-        <v>67.0455891665849</v>
+        <v>66.9884325308696</v>
       </c>
       <c r="AC9" t="n">
-        <v>60.7262925694329</v>
+        <v>59.5633310066211</v>
       </c>
       <c r="AD9" t="n">
-        <v>70.4479915555535</v>
+        <v>68.0170259865008</v>
       </c>
       <c r="AE9" t="n">
-        <v>65.6984141569821</v>
+        <v>64.3228031901034</v>
       </c>
       <c r="AF9" t="n">
-        <v>56.485321841401</v>
+        <v>57.8571151419567</v>
       </c>
       <c r="AG9" t="n">
-        <v>69.1079614094076</v>
+        <v>70.1328465237015</v>
       </c>
       <c r="AH9" t="n">
-        <v>64.7952630120259</v>
+        <v>62.6106241731831</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B10" t="n">
+        <v>65.7993657010875</v>
+      </c>
+      <c r="C10" t="n">
+        <v>73.7470334984928</v>
+      </c>
+      <c r="D10" t="n">
+        <v>69.3957894551753</v>
+      </c>
+      <c r="E10" t="n">
+        <v>72.4991801826291</v>
+      </c>
+      <c r="F10" t="n">
+        <v>64.7009065620973</v>
+      </c>
+      <c r="G10" t="n">
+        <v>71.1591381427296</v>
+      </c>
+      <c r="H10" t="n">
+        <v>66.3488726373169</v>
+      </c>
+      <c r="I10" t="n">
+        <v>55.6249380233232</v>
+      </c>
+      <c r="J10" t="n">
+        <v>66.473954394105</v>
+      </c>
+      <c r="K10" t="n">
+        <v>74.9385802709073</v>
+      </c>
+      <c r="L10" t="n">
+        <v>67.5794254611988</v>
+      </c>
+      <c r="M10" t="n">
+        <v>64.36770640212</v>
+      </c>
+      <c r="N10" t="n">
+        <v>53.7901001119088</v>
+      </c>
+      <c r="O10" t="n">
+        <v>65.2176024053761</v>
+      </c>
+      <c r="P10" t="n">
+        <v>69.9855704551509</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>65.0220285434889</v>
+      </c>
+      <c r="R10" t="n">
+        <v>62.5493448177109</v>
+      </c>
+      <c r="S10" t="n">
+        <v>61.2255674764072</v>
+      </c>
+      <c r="T10" t="n">
+        <v>66.8702420841071</v>
+      </c>
+      <c r="U10" t="n">
+        <v>71.2792933452506</v>
+      </c>
+      <c r="V10" t="n">
+        <v>55.6099911864519</v>
+      </c>
+      <c r="W10" t="n">
+        <v>63.0624703046639</v>
+      </c>
+      <c r="X10" t="n">
+        <v>71.6234810477358</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>67.4116534712937</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>65.2133898165896</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>70.9390399478515</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>67.8409007616634</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>60.3750514309153</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>69.1353327025369</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>66.5448779081195</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>58.2943612744015</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>70.6953827089496</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>64.4471270641832</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/09_data_web/00_ips.xlsx
+++ b/03_ips_clean/09_data_web/00_ips.xlsx
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>60.9030773814053</v>
+        <v>58.5544964635126</v>
       </c>
       <c r="C2" t="n">
-        <v>68.249663250929</v>
+        <v>65.9088782294118</v>
       </c>
       <c r="D2" t="n">
-        <v>65.3533672234841</v>
+        <v>63.0473766435674</v>
       </c>
       <c r="E2" t="n">
-        <v>64.6883635348866</v>
+        <v>62.5128015870648</v>
       </c>
       <c r="F2" t="n">
-        <v>61.0564523571609</v>
+        <v>57.0995814740768</v>
       </c>
       <c r="G2" t="n">
-        <v>63.0097223702199</v>
+        <v>60.7065764636996</v>
       </c>
       <c r="H2" t="n">
-        <v>66.2095849806513</v>
+        <v>62.4238669534047</v>
       </c>
       <c r="I2" t="n">
-        <v>49.4238313708461</v>
+        <v>47.9273153494827</v>
       </c>
       <c r="J2" t="n">
-        <v>61.6725325006392</v>
+        <v>59.7358225764224</v>
       </c>
       <c r="K2" t="n">
-        <v>68.7321466818965</v>
+        <v>67.8172301404906</v>
       </c>
       <c r="L2" t="n">
-        <v>61.7284022533004</v>
+        <v>59.118897933894</v>
       </c>
       <c r="M2" t="n">
-        <v>60.2020834437839</v>
+        <v>58.0181559544192</v>
       </c>
       <c r="N2" t="n">
-        <v>46.966838777858</v>
+        <v>44.7776387706263</v>
       </c>
       <c r="O2" t="n">
-        <v>59.2625363778989</v>
+        <v>56.1061804996769</v>
       </c>
       <c r="P2" t="n">
-        <v>65.5291344251081</v>
+        <v>63.6473831789968</v>
       </c>
       <c r="Q2" t="n">
-        <v>61.1127131687139</v>
+        <v>58.5181417575228</v>
       </c>
       <c r="R2" t="n">
-        <v>57.187977725597</v>
+        <v>54.538138627287</v>
       </c>
       <c r="S2" t="n">
-        <v>58.2970445245033</v>
+        <v>55.3653440370962</v>
       </c>
       <c r="T2" t="n">
-        <v>61.483762026439</v>
+        <v>59.5743366111535</v>
       </c>
       <c r="U2" t="n">
-        <v>68.7565056603933</v>
+        <v>67.3705386001682</v>
       </c>
       <c r="V2" t="n">
-        <v>49.8967808822155</v>
+        <v>46.3405818970014</v>
       </c>
       <c r="W2" t="n">
-        <v>57.6210608128011</v>
+        <v>54.8378287821595</v>
       </c>
       <c r="X2" t="n">
-        <v>68.6292483883767</v>
+        <v>66.1112779915003</v>
       </c>
       <c r="Y2" t="n">
-        <v>64.0837913717894</v>
+        <v>61.0846890556313</v>
       </c>
       <c r="Z2" t="n">
-        <v>61.2117884697484</v>
+        <v>57.9445746857893</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.413743420267</v>
+        <v>59.7185313325692</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.5309073699353</v>
+        <v>62.6696810526698</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.025075689594</v>
+        <v>51.1990034554374</v>
       </c>
       <c r="AD2" t="n">
-        <v>62.2123757328503</v>
+        <v>59.7095159612172</v>
       </c>
       <c r="AE2" t="n">
-        <v>61.3348306151904</v>
+        <v>58.3278762697116</v>
       </c>
       <c r="AF2" t="n">
-        <v>54.5208884363757</v>
+        <v>52.2003521484004</v>
       </c>
       <c r="AG2" t="n">
-        <v>63.0179075261856</v>
+        <v>60.874349073621</v>
       </c>
       <c r="AH2" t="n">
-        <v>60.7175193670189</v>
+        <v>58.1895202278608</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>61.9372899295806</v>
+        <v>59.7000013971557</v>
       </c>
       <c r="C3" t="n">
-        <v>69.2825580028766</v>
+        <v>66.7865405495353</v>
       </c>
       <c r="D3" t="n">
-        <v>67.0717337738672</v>
+        <v>65.0555268246134</v>
       </c>
       <c r="E3" t="n">
-        <v>66.7493526185535</v>
+        <v>63.9638304141883</v>
       </c>
       <c r="F3" t="n">
-        <v>61.1652216345155</v>
+        <v>58.09503119942</v>
       </c>
       <c r="G3" t="n">
-        <v>66.1293786658706</v>
+        <v>63.1828169219916</v>
       </c>
       <c r="H3" t="n">
-        <v>64.1549923831153</v>
+        <v>61.3566809603335</v>
       </c>
       <c r="I3" t="n">
-        <v>51.762764393313</v>
+        <v>49.5866783037242</v>
       </c>
       <c r="J3" t="n">
-        <v>64.7188992076036</v>
+        <v>61.6355380595206</v>
       </c>
       <c r="K3" t="n">
-        <v>70.1834470720405</v>
+        <v>69.3993165270095</v>
       </c>
       <c r="L3" t="n">
-        <v>64.1513558130237</v>
+        <v>61.4887533186103</v>
       </c>
       <c r="M3" t="n">
-        <v>61.4620792553107</v>
+        <v>59.47719902066</v>
       </c>
       <c r="N3" t="n">
-        <v>48.2905421533258</v>
+        <v>46.2670513619091</v>
       </c>
       <c r="O3" t="n">
-        <v>60.663591441289</v>
+        <v>57.8893854170644</v>
       </c>
       <c r="P3" t="n">
-        <v>66.3835129918816</v>
+        <v>64.5121421166066</v>
       </c>
       <c r="Q3" t="n">
-        <v>61.7613662873096</v>
+        <v>59.1412983108271</v>
       </c>
       <c r="R3" t="n">
-        <v>58.698840422068</v>
+        <v>56.8417718440177</v>
       </c>
       <c r="S3" t="n">
-        <v>59.9743735519129</v>
+        <v>56.9413928482152</v>
       </c>
       <c r="T3" t="n">
-        <v>63.2775166714757</v>
+        <v>60.7974187425296</v>
       </c>
       <c r="U3" t="n">
-        <v>68.2914281528349</v>
+        <v>66.6647837165396</v>
       </c>
       <c r="V3" t="n">
-        <v>50.2184562356829</v>
+        <v>48.1496920813632</v>
       </c>
       <c r="W3" t="n">
-        <v>58.777681347793</v>
+        <v>56.1838739193905</v>
       </c>
       <c r="X3" t="n">
-        <v>68.1847403941352</v>
+        <v>66.1219547555018</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.0025361843378</v>
+        <v>62.1296237116187</v>
       </c>
       <c r="Z3" t="n">
-        <v>62.0622577955518</v>
+        <v>60.1157215523261</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.4325586454907</v>
+        <v>61.8905051676815</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.5120351758781</v>
+        <v>63.953214642326</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.027121554469</v>
+        <v>52.688881701329</v>
       </c>
       <c r="AD3" t="n">
-        <v>62.1835309629841</v>
+        <v>60.1213927513128</v>
       </c>
       <c r="AE3" t="n">
-        <v>61.6130776216759</v>
+        <v>58.9747947765908</v>
       </c>
       <c r="AF3" t="n">
-        <v>55.3986305509679</v>
+        <v>52.8325278956985</v>
       </c>
       <c r="AG3" t="n">
-        <v>65.3644278485675</v>
+        <v>62.7070978758513</v>
       </c>
       <c r="AH3" t="n">
-        <v>61.9392802560988</v>
+        <v>60.2409169970079</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>61.9584298882253</v>
+        <v>59.5284103084657</v>
       </c>
       <c r="C4" t="n">
-        <v>68.6626765057764</v>
+        <v>66.496678599256</v>
       </c>
       <c r="D4" t="n">
-        <v>65.9563485995914</v>
+        <v>64.325579718383</v>
       </c>
       <c r="E4" t="n">
-        <v>64.9779832686781</v>
+        <v>62.1152370353834</v>
       </c>
       <c r="F4" t="n">
-        <v>62.3222078652033</v>
+        <v>59.5943482700196</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5554144649376</v>
+        <v>63.5733703208928</v>
       </c>
       <c r="H4" t="n">
-        <v>64.5004092936109</v>
+        <v>62.325473249969</v>
       </c>
       <c r="I4" t="n">
-        <v>51.4953756825484</v>
+        <v>49.0427529847435</v>
       </c>
       <c r="J4" t="n">
-        <v>63.0018834383166</v>
+        <v>60.3297579340719</v>
       </c>
       <c r="K4" t="n">
-        <v>69.6602764201004</v>
+        <v>68.2397237815857</v>
       </c>
       <c r="L4" t="n">
-        <v>63.4332057555228</v>
+        <v>60.6178198323285</v>
       </c>
       <c r="M4" t="n">
-        <v>61.278800131168</v>
+        <v>58.8820676654795</v>
       </c>
       <c r="N4" t="n">
-        <v>48.9272350708894</v>
+        <v>46.9893975324739</v>
       </c>
       <c r="O4" t="n">
-        <v>59.8908567431876</v>
+        <v>57.0523544852148</v>
       </c>
       <c r="P4" t="n">
-        <v>66.3917458363564</v>
+        <v>64.4069571843904</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.3021932332262</v>
+        <v>60.5039061378401</v>
       </c>
       <c r="R4" t="n">
-        <v>59.4477731142682</v>
+        <v>57.1275513729769</v>
       </c>
       <c r="S4" t="n">
-        <v>60.3790156417292</v>
+        <v>57.4989862533031</v>
       </c>
       <c r="T4" t="n">
-        <v>61.4647495678667</v>
+        <v>59.471683954419</v>
       </c>
       <c r="U4" t="n">
-        <v>68.2395370734201</v>
+        <v>66.6659290410932</v>
       </c>
       <c r="V4" t="n">
-        <v>51.3360618526015</v>
+        <v>48.4204378732429</v>
       </c>
       <c r="W4" t="n">
-        <v>59.1752596456135</v>
+        <v>56.0700112107125</v>
       </c>
       <c r="X4" t="n">
-        <v>68.3423934964183</v>
+        <v>66.3086428070798</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.4473216065971</v>
+        <v>62.4499661609991</v>
       </c>
       <c r="Z4" t="n">
-        <v>61.2047268706961</v>
+        <v>58.7862423862708</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.422619971819</v>
+        <v>62.7643478801576</v>
       </c>
       <c r="AB4" t="n">
-        <v>66.7532102817085</v>
+        <v>64.5644663022974</v>
       </c>
       <c r="AC4" t="n">
-        <v>55.5933532997805</v>
+        <v>52.0708230968542</v>
       </c>
       <c r="AD4" t="n">
-        <v>61.9755705505412</v>
+        <v>60.1749959718165</v>
       </c>
       <c r="AE4" t="n">
-        <v>61.433330789614</v>
+        <v>58.9575264070064</v>
       </c>
       <c r="AF4" t="n">
-        <v>54.8679288628116</v>
+        <v>51.9172152433268</v>
       </c>
       <c r="AG4" t="n">
-        <v>66.8061772683195</v>
+        <v>63.6125023897067</v>
       </c>
       <c r="AH4" t="n">
-        <v>61.1365923353428</v>
+        <v>59.2630762707148</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>62.65995048412</v>
+        <v>60.5700333520266</v>
       </c>
       <c r="C5" t="n">
-        <v>69.9196617578921</v>
+        <v>68.2456297511737</v>
       </c>
       <c r="D5" t="n">
-        <v>65.7206103228762</v>
+        <v>63.8580850035234</v>
       </c>
       <c r="E5" t="n">
-        <v>66.6925328586448</v>
+        <v>64.3553033509475</v>
       </c>
       <c r="F5" t="n">
-        <v>61.1323919175986</v>
+        <v>58.6894696819873</v>
       </c>
       <c r="G5" t="n">
-        <v>66.8563325250526</v>
+        <v>64.4902078871732</v>
       </c>
       <c r="H5" t="n">
-        <v>65.1492956114207</v>
+        <v>62.9773511861776</v>
       </c>
       <c r="I5" t="n">
-        <v>52.2587513684615</v>
+        <v>50.2265066801797</v>
       </c>
       <c r="J5" t="n">
-        <v>63.7132847238969</v>
+        <v>61.7623870993432</v>
       </c>
       <c r="K5" t="n">
-        <v>70.8115686269395</v>
+        <v>69.6954854079547</v>
       </c>
       <c r="L5" t="n">
-        <v>63.4926698411589</v>
+        <v>61.8705955262142</v>
       </c>
       <c r="M5" t="n">
-        <v>62.0533443460778</v>
+        <v>60.039174665824</v>
       </c>
       <c r="N5" t="n">
-        <v>50.8188400901582</v>
+        <v>48.5151733758939</v>
       </c>
       <c r="O5" t="n">
-        <v>61.2243633775526</v>
+        <v>58.4525614209942</v>
       </c>
       <c r="P5" t="n">
-        <v>66.8609727849979</v>
+        <v>65.3234467681762</v>
       </c>
       <c r="Q5" t="n">
-        <v>63.4540603571609</v>
+        <v>61.0357698780997</v>
       </c>
       <c r="R5" t="n">
-        <v>60.9456013015186</v>
+        <v>59.0623267251784</v>
       </c>
       <c r="S5" t="n">
-        <v>61.3871298114387</v>
+        <v>58.5478822303799</v>
       </c>
       <c r="T5" t="n">
-        <v>62.2028733080703</v>
+        <v>59.7744132265561</v>
       </c>
       <c r="U5" t="n">
-        <v>69.5797227607882</v>
+        <v>67.9463228530398</v>
       </c>
       <c r="V5" t="n">
-        <v>52.9350219128625</v>
+        <v>50.1724193214106</v>
       </c>
       <c r="W5" t="n">
-        <v>60.204224651319</v>
+        <v>57.5108891512602</v>
       </c>
       <c r="X5" t="n">
-        <v>68.3250465218535</v>
+        <v>66.4125117367477</v>
       </c>
       <c r="Y5" t="n">
-        <v>65.0812807024426</v>
+        <v>62.4393703357263</v>
       </c>
       <c r="Z5" t="n">
-        <v>62.0921436599387</v>
+        <v>60.0810940077999</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.0349239094579</v>
+        <v>63.4319885273932</v>
       </c>
       <c r="AB5" t="n">
-        <v>67.7879491372106</v>
+        <v>65.7926392669936</v>
       </c>
       <c r="AC5" t="n">
-        <v>55.1943641690774</v>
+        <v>52.2008820073023</v>
       </c>
       <c r="AD5" t="n">
-        <v>64.0971186804873</v>
+        <v>62.5600763743267</v>
       </c>
       <c r="AE5" t="n">
-        <v>63.6666266961236</v>
+        <v>61.4075951061817</v>
       </c>
       <c r="AF5" t="n">
-        <v>55.6970685927677</v>
+        <v>52.9590819656211</v>
       </c>
       <c r="AG5" t="n">
-        <v>66.3946387710102</v>
+        <v>63.5799362421305</v>
       </c>
       <c r="AH5" t="n">
-        <v>61.6176593343472</v>
+        <v>59.9383681242891</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>63.0373385906464</v>
+        <v>61.5056696442268</v>
       </c>
       <c r="C6" t="n">
-        <v>70.8048306939206</v>
+        <v>69.3187473357</v>
       </c>
       <c r="D6" t="n">
-        <v>66.2058278402741</v>
+        <v>64.770525756758</v>
       </c>
       <c r="E6" t="n">
-        <v>67.3756646565673</v>
+        <v>65.5659974812381</v>
       </c>
       <c r="F6" t="n">
-        <v>62.0904641521317</v>
+        <v>59.3994289493139</v>
       </c>
       <c r="G6" t="n">
-        <v>67.4014917068305</v>
+        <v>65.7725663608158</v>
       </c>
       <c r="H6" t="n">
-        <v>63.8778447578139</v>
+        <v>63.2567877447548</v>
       </c>
       <c r="I6" t="n">
-        <v>52.5566927579995</v>
+        <v>50.7826688775133</v>
       </c>
       <c r="J6" t="n">
-        <v>64.3431607631348</v>
+        <v>62.5419088617109</v>
       </c>
       <c r="K6" t="n">
-        <v>70.0590359273017</v>
+        <v>69.9582542019336</v>
       </c>
       <c r="L6" t="n">
-        <v>64.0296312666303</v>
+        <v>62.3253001532016</v>
       </c>
       <c r="M6" t="n">
-        <v>62.3810406491086</v>
+        <v>60.9286797808719</v>
       </c>
       <c r="N6" t="n">
-        <v>49.1264092769138</v>
+        <v>47.0708614200017</v>
       </c>
       <c r="O6" t="n">
-        <v>62.0388628444782</v>
+        <v>59.2389994553192</v>
       </c>
       <c r="P6" t="n">
-        <v>66.6578340915388</v>
+        <v>65.5461642020065</v>
       </c>
       <c r="Q6" t="n">
-        <v>62.5204906306996</v>
+        <v>61.260782316633</v>
       </c>
       <c r="R6" t="n">
-        <v>60.6931453824348</v>
+        <v>58.8404890438462</v>
       </c>
       <c r="S6" t="n">
-        <v>61.2841316660442</v>
+        <v>59.1227579794982</v>
       </c>
       <c r="T6" t="n">
-        <v>63.4679610151139</v>
+        <v>62.0177869335695</v>
       </c>
       <c r="U6" t="n">
-        <v>69.8773829519561</v>
+        <v>68.9508893105943</v>
       </c>
       <c r="V6" t="n">
-        <v>53.7511824101072</v>
+        <v>50.9495263752579</v>
       </c>
       <c r="W6" t="n">
-        <v>60.3605693074266</v>
+        <v>58.3422798111602</v>
       </c>
       <c r="X6" t="n">
-        <v>69.005726285346</v>
+        <v>67.4306602311196</v>
       </c>
       <c r="Y6" t="n">
-        <v>64.038221399961</v>
+        <v>61.7713720025844</v>
       </c>
       <c r="Z6" t="n">
-        <v>62.4400472785507</v>
+        <v>60.7804236321976</v>
       </c>
       <c r="AA6" t="n">
-        <v>66.1246918030516</v>
+        <v>64.938335333056</v>
       </c>
       <c r="AB6" t="n">
-        <v>67.5901198854562</v>
+        <v>65.7860920788891</v>
       </c>
       <c r="AC6" t="n">
-        <v>56.3619283047627</v>
+        <v>54.0116392513968</v>
       </c>
       <c r="AD6" t="n">
-        <v>65.4018399951283</v>
+        <v>64.2138842635332</v>
       </c>
       <c r="AE6" t="n">
-        <v>63.5911338285273</v>
+        <v>61.9067551613638</v>
       </c>
       <c r="AF6" t="n">
-        <v>56.0767084672491</v>
+        <v>53.4567769621465</v>
       </c>
       <c r="AG6" t="n">
-        <v>68.0018803844243</v>
+        <v>65.6060896854141</v>
       </c>
       <c r="AH6" t="n">
-        <v>61.5165945132757</v>
+        <v>60.6173475772077</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,103 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>61.3155283249709</v>
+        <v>60.5695126084847</v>
       </c>
       <c r="C7" t="n">
-        <v>68.4035673879518</v>
+        <v>67.9517944144898</v>
       </c>
       <c r="D7" t="n">
-        <v>64.8738403197281</v>
+        <v>64.4810161549996</v>
       </c>
       <c r="E7" t="n">
-        <v>66.9251936188647</v>
+        <v>65.439054441268</v>
       </c>
       <c r="F7" t="n">
-        <v>60.6673317622281</v>
+        <v>59.5937946732813</v>
       </c>
       <c r="G7" t="n">
-        <v>65.1654727330293</v>
+        <v>65.0811687775927</v>
       </c>
       <c r="H7" t="n">
-        <v>64.7641541335124</v>
+        <v>64.4853622274418</v>
       </c>
       <c r="I7" t="n">
-        <v>51.9316179927787</v>
+        <v>50.4041787988743</v>
       </c>
       <c r="J7" t="n">
-        <v>61.1078876681686</v>
+        <v>60.7391980116211</v>
       </c>
       <c r="K7" t="n">
-        <v>67.0952119896836</v>
+        <v>68.2633488380296</v>
       </c>
       <c r="L7" t="n">
-        <v>63.8424063584388</v>
+        <v>63.3406324461378</v>
       </c>
       <c r="M7" t="n">
-        <v>60.2937701391716</v>
+        <v>59.1742836524321</v>
       </c>
       <c r="N7" t="n">
-        <v>49.5706304983934</v>
+        <v>49.1120399621088</v>
       </c>
       <c r="O7" t="n">
-        <v>61.2377037444691</v>
+        <v>59.5165303823833</v>
       </c>
       <c r="P7" t="n">
-        <v>65.6026411410391</v>
+        <v>64.7925262282956</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.0502647188337</v>
+        <v>58.9813915379991</v>
       </c>
       <c r="R7" t="n">
-        <v>59.1089356041774</v>
+        <v>57.8845244684197</v>
       </c>
       <c r="S7" t="n">
-        <v>59.7322594252123</v>
+        <v>58.3781734096841</v>
       </c>
       <c r="T7" t="n">
-        <v>62.7618960191881</v>
+        <v>62.8381347291225</v>
       </c>
       <c r="U7" t="n">
-        <v>69.4142235022228</v>
+        <v>68.894856660519</v>
       </c>
       <c r="V7" t="n">
-        <v>51.7752081431831</v>
+        <v>50.260803220282</v>
       </c>
       <c r="W7" t="n">
-        <v>57.8352513718748</v>
+        <v>56.0305537195864</v>
       </c>
       <c r="X7" t="n">
-        <v>69.4440671921402</v>
+        <v>67.562571219707</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.129491696417</v>
+        <v>59.9555335100201</v>
       </c>
       <c r="Z7" t="n">
-        <v>58.5166422921602</v>
+        <v>57.951465443939</v>
       </c>
       <c r="AA7" t="n">
-        <v>64.0736541249842</v>
+        <v>64.9585366206017</v>
       </c>
       <c r="AB7" t="n">
-        <v>64.3705160290367</v>
+        <v>64.3543022120226</v>
       </c>
       <c r="AC7" t="n">
-        <v>53.9886149723066</v>
+        <v>53.0805312208749</v>
       </c>
       <c r="AD7" t="n">
-        <v>63.6113716727066</v>
+        <v>63.4930693191126</v>
       </c>
       <c r="AE7" t="n">
-        <v>60.1179088901634</v>
+        <v>59.4199894321577</v>
       </c>
       <c r="AF7" t="n">
-        <v>55.292470753741</v>
+        <v>53.7927260488283</v>
       </c>
       <c r="AG7" t="n">
-        <v>66.4045369025107</v>
+        <v>64.5343136483333</v>
       </c>
       <c r="AH7" t="n">
-        <v>58.5734434273126</v>
+        <v>58.5820985591631</v>
       </c>
     </row>
     <row r="8">
@@ -1178,103 +1178,103 @@
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>61.2400835049676</v>
+        <v>60.6927428230687</v>
       </c>
       <c r="C8" t="n">
-        <v>69.7117505680846</v>
+        <v>68.7708946314005</v>
       </c>
       <c r="D8" t="n">
-        <v>65.4470895195295</v>
+        <v>64.9447915656378</v>
       </c>
       <c r="E8" t="n">
-        <v>66.0821479398931</v>
+        <v>65.5535482119183</v>
       </c>
       <c r="F8" t="n">
-        <v>60.9425962081552</v>
+        <v>59.9493478045939</v>
       </c>
       <c r="G8" t="n">
-        <v>67.713006856233</v>
+        <v>66.6147433525688</v>
       </c>
       <c r="H8" t="n">
-        <v>62.4999202996836</v>
+        <v>63.5912131041156</v>
       </c>
       <c r="I8" t="n">
-        <v>52.5530461861155</v>
+        <v>50.3999825634591</v>
       </c>
       <c r="J8" t="n">
-        <v>64.3320404362235</v>
+        <v>63.4251531560152</v>
       </c>
       <c r="K8" t="n">
-        <v>68.6126129589399</v>
+        <v>69.822472691235</v>
       </c>
       <c r="L8" t="n">
-        <v>63.259053751132</v>
+        <v>62.1234474500154</v>
       </c>
       <c r="M8" t="n">
-        <v>60.0770427925912</v>
+        <v>59.226614304455</v>
       </c>
       <c r="N8" t="n">
-        <v>50.207328610401</v>
+        <v>49.8770294841096</v>
       </c>
       <c r="O8" t="n">
-        <v>60.0599824128875</v>
+        <v>58.7093165326332</v>
       </c>
       <c r="P8" t="n">
-        <v>65.488020268767</v>
+        <v>65.608700385988</v>
       </c>
       <c r="Q8" t="n">
-        <v>60.2978836607788</v>
+        <v>59.6717357851721</v>
       </c>
       <c r="R8" t="n">
-        <v>58.0844619223555</v>
+        <v>57.4084757487133</v>
       </c>
       <c r="S8" t="n">
-        <v>58.2893442782816</v>
+        <v>58.2462845490849</v>
       </c>
       <c r="T8" t="n">
-        <v>62.8371600298578</v>
+        <v>63.9169473421603</v>
       </c>
       <c r="U8" t="n">
-        <v>68.3944145279573</v>
+        <v>67.9455764644388</v>
       </c>
       <c r="V8" t="n">
-        <v>50.3040128643145</v>
+        <v>48.8102529068478</v>
       </c>
       <c r="W8" t="n">
-        <v>56.1447839260195</v>
+        <v>55.5922673539671</v>
       </c>
       <c r="X8" t="n">
-        <v>67.598916697013</v>
+        <v>66.6117892410224</v>
       </c>
       <c r="Y8" t="n">
-        <v>63.3321473206253</v>
+        <v>61.0703637302867</v>
       </c>
       <c r="Z8" t="n">
-        <v>60.0025489568492</v>
+        <v>59.2989397537063</v>
       </c>
       <c r="AA8" t="n">
-        <v>64.888923126601</v>
+        <v>65.1833891848014</v>
       </c>
       <c r="AB8" t="n">
-        <v>64.7220336713763</v>
+        <v>64.1794938127067</v>
       </c>
       <c r="AC8" t="n">
-        <v>57.0410892591503</v>
+        <v>55.6946214361386</v>
       </c>
       <c r="AD8" t="n">
-        <v>64.4412934581316</v>
+        <v>64.0432985305899</v>
       </c>
       <c r="AE8" t="n">
-        <v>60.8896882331802</v>
+        <v>60.0593924486841</v>
       </c>
       <c r="AF8" t="n">
-        <v>53.9788215920288</v>
+        <v>52.8964644281774</v>
       </c>
       <c r="AG8" t="n">
-        <v>65.6223612999082</v>
+        <v>64.6197828583119</v>
       </c>
       <c r="AH8" t="n">
-        <v>59.5261071747351</v>
+        <v>59.1385904026331</v>
       </c>
     </row>
     <row r="9">
@@ -1282,103 +1282,103 @@
         <v>2022</v>
       </c>
       <c r="B9" t="n">
-        <v>64.9061984438907</v>
+        <v>63.3564100456001</v>
       </c>
       <c r="C9" t="n">
-        <v>72.869305853611</v>
+        <v>71.330504500775</v>
       </c>
       <c r="D9" t="n">
-        <v>68.5591024918048</v>
+        <v>67.3664579308696</v>
       </c>
       <c r="E9" t="n">
-        <v>69.8226025439409</v>
+        <v>68.209829388281</v>
       </c>
       <c r="F9" t="n">
-        <v>63.7941214806383</v>
+        <v>61.8994106150086</v>
       </c>
       <c r="G9" t="n">
-        <v>70.5479444672478</v>
+        <v>69.0683828914681</v>
       </c>
       <c r="H9" t="n">
-        <v>65.6308042462805</v>
+        <v>65.1992803225238</v>
       </c>
       <c r="I9" t="n">
-        <v>55.3143944647252</v>
+        <v>52.9630967878407</v>
       </c>
       <c r="J9" t="n">
-        <v>66.9234312253667</v>
+        <v>65.5288914783766</v>
       </c>
       <c r="K9" t="n">
-        <v>73.8447405029796</v>
+        <v>72.5767693445603</v>
       </c>
       <c r="L9" t="n">
-        <v>65.0599093970557</v>
+        <v>63.0869984872101</v>
       </c>
       <c r="M9" t="n">
-        <v>63.3496544520941</v>
+        <v>61.68196212288</v>
       </c>
       <c r="N9" t="n">
-        <v>52.8180741295365</v>
+        <v>50.9213295681732</v>
       </c>
       <c r="O9" t="n">
-        <v>63.6350583414029</v>
+        <v>61.3287079505488</v>
       </c>
       <c r="P9" t="n">
-        <v>69.5580717315877</v>
+        <v>68.4094831223775</v>
       </c>
       <c r="Q9" t="n">
-        <v>65.6731151360002</v>
+        <v>64.0583624083827</v>
       </c>
       <c r="R9" t="n">
-        <v>61.9132653391496</v>
+        <v>60.3353734655085</v>
       </c>
       <c r="S9" t="n">
-        <v>62.61521664161</v>
+        <v>61.1045519166432</v>
       </c>
       <c r="T9" t="n">
-        <v>65.6351800457758</v>
+        <v>65.3458585610268</v>
       </c>
       <c r="U9" t="n">
-        <v>71.0943127013309</v>
+        <v>69.5724000698251</v>
       </c>
       <c r="V9" t="n">
-        <v>54.5718492354553</v>
+        <v>52.0366100734292</v>
       </c>
       <c r="W9" t="n">
-        <v>62.0857334212637</v>
+        <v>59.9367945874081</v>
       </c>
       <c r="X9" t="n">
-        <v>71.0994607395937</v>
+        <v>69.29952275697</v>
       </c>
       <c r="Y9" t="n">
-        <v>67.0617514541269</v>
+        <v>64.8497774925602</v>
       </c>
       <c r="Z9" t="n">
-        <v>63.6904474574312</v>
+        <v>62.0661445054273</v>
       </c>
       <c r="AA9" t="n">
-        <v>69.7641783701931</v>
+        <v>68.6332706436341</v>
       </c>
       <c r="AB9" t="n">
-        <v>66.9884325308696</v>
+        <v>65.7889046295828</v>
       </c>
       <c r="AC9" t="n">
-        <v>59.5633310066211</v>
+        <v>57.832565044934</v>
       </c>
       <c r="AD9" t="n">
-        <v>68.0170259865008</v>
+        <v>67.0860781212199</v>
       </c>
       <c r="AE9" t="n">
-        <v>64.3228031901034</v>
+        <v>62.5522055423118</v>
       </c>
       <c r="AF9" t="n">
-        <v>57.8571151419567</v>
+        <v>56.1821406234849</v>
       </c>
       <c r="AG9" t="n">
-        <v>70.1328465237015</v>
+        <v>67.7100814759272</v>
       </c>
       <c r="AH9" t="n">
-        <v>62.6106241731831</v>
+        <v>61.53650730064</v>
       </c>
     </row>
     <row r="10">
@@ -1386,103 +1386,207 @@
         <v>2023</v>
       </c>
       <c r="B10" t="n">
-        <v>65.7993657010875</v>
+        <v>63.8782957933174</v>
       </c>
       <c r="C10" t="n">
-        <v>73.7470334984928</v>
+        <v>72.3378357661127</v>
       </c>
       <c r="D10" t="n">
-        <v>69.3957894551753</v>
+        <v>68.0604912116868</v>
       </c>
       <c r="E10" t="n">
-        <v>72.4991801826291</v>
+        <v>70.2398730911136</v>
       </c>
       <c r="F10" t="n">
-        <v>64.7009065620973</v>
+        <v>62.3380445295177</v>
       </c>
       <c r="G10" t="n">
-        <v>71.1591381427296</v>
+        <v>69.7684721756066</v>
       </c>
       <c r="H10" t="n">
-        <v>66.3488726373169</v>
+        <v>65.3773006535905</v>
       </c>
       <c r="I10" t="n">
-        <v>55.6249380233232</v>
+        <v>53.0010068595245</v>
       </c>
       <c r="J10" t="n">
-        <v>66.473954394105</v>
+        <v>64.820619021625</v>
       </c>
       <c r="K10" t="n">
-        <v>74.9385802709073</v>
+        <v>73.3250566921742</v>
       </c>
       <c r="L10" t="n">
-        <v>67.5794254611988</v>
+        <v>65.170550891433</v>
       </c>
       <c r="M10" t="n">
-        <v>64.36770640212</v>
+        <v>62.6358221267409</v>
       </c>
       <c r="N10" t="n">
-        <v>53.7901001119088</v>
+        <v>50.9522158668246</v>
       </c>
       <c r="O10" t="n">
-        <v>65.2176024053761</v>
+        <v>62.4627305372298</v>
       </c>
       <c r="P10" t="n">
-        <v>69.9855704551509</v>
+        <v>68.424095418031</v>
       </c>
       <c r="Q10" t="n">
-        <v>65.0220285434889</v>
+        <v>62.9262766945584</v>
       </c>
       <c r="R10" t="n">
-        <v>62.5493448177109</v>
+        <v>60.0717735552001</v>
       </c>
       <c r="S10" t="n">
-        <v>61.2255674764072</v>
+        <v>59.262067790617</v>
       </c>
       <c r="T10" t="n">
-        <v>66.8702420841071</v>
+        <v>65.9685188775866</v>
       </c>
       <c r="U10" t="n">
-        <v>71.2792933452506</v>
+        <v>69.7636639943775</v>
       </c>
       <c r="V10" t="n">
-        <v>55.6099911864519</v>
+        <v>53.5750856588323</v>
       </c>
       <c r="W10" t="n">
-        <v>63.0624703046639</v>
+        <v>60.2615915270788</v>
       </c>
       <c r="X10" t="n">
-        <v>71.6234810477358</v>
+        <v>70.094671013568</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.4116534712937</v>
+        <v>64.0987069406781</v>
       </c>
       <c r="Z10" t="n">
-        <v>65.2133898165896</v>
+        <v>62.8297793400812</v>
       </c>
       <c r="AA10" t="n">
-        <v>70.9390399478515</v>
+        <v>69.50132174186</v>
       </c>
       <c r="AB10" t="n">
-        <v>67.8409007616634</v>
+        <v>66.050489715241</v>
       </c>
       <c r="AC10" t="n">
-        <v>60.3750514309153</v>
+        <v>58.8418756298189</v>
       </c>
       <c r="AD10" t="n">
-        <v>69.1353327025369</v>
+        <v>67.8361933648016</v>
       </c>
       <c r="AE10" t="n">
-        <v>66.5448779081195</v>
+        <v>64.3058294040675</v>
       </c>
       <c r="AF10" t="n">
-        <v>58.2943612744015</v>
+        <v>56.4635874326788</v>
       </c>
       <c r="AG10" t="n">
-        <v>70.6953827089496</v>
+        <v>67.4656193865866</v>
       </c>
       <c r="AH10" t="n">
-        <v>64.4471270641832</v>
+        <v>62.7798632102378</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B11" t="n">
+        <v>65.0466986786494</v>
+      </c>
+      <c r="C11" t="n">
+        <v>73.4066974055046</v>
+      </c>
+      <c r="D11" t="n">
+        <v>68.9359682151318</v>
+      </c>
+      <c r="E11" t="n">
+        <v>69.004268293388</v>
+      </c>
+      <c r="F11" t="n">
+        <v>62.9273358919287</v>
+      </c>
+      <c r="G11" t="n">
+        <v>70.6043055043798</v>
+      </c>
+      <c r="H11" t="n">
+        <v>66.8633155774969</v>
+      </c>
+      <c r="I11" t="n">
+        <v>53.5879842250329</v>
+      </c>
+      <c r="J11" t="n">
+        <v>65.7474543852112</v>
+      </c>
+      <c r="K11" t="n">
+        <v>73.7916018718401</v>
+      </c>
+      <c r="L11" t="n">
+        <v>66.4807349683516</v>
+      </c>
+      <c r="M11" t="n">
+        <v>63.3947283775822</v>
+      </c>
+      <c r="N11" t="n">
+        <v>53.5852466181582</v>
+      </c>
+      <c r="O11" t="n">
+        <v>63.8607220822656</v>
+      </c>
+      <c r="P11" t="n">
+        <v>69.5412849568871</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>63.81237796524</v>
+      </c>
+      <c r="R11" t="n">
+        <v>61.639315627875</v>
+      </c>
+      <c r="S11" t="n">
+        <v>60.7992564750459</v>
+      </c>
+      <c r="T11" t="n">
+        <v>66.5728274448016</v>
+      </c>
+      <c r="U11" t="n">
+        <v>71.0795842676785</v>
+      </c>
+      <c r="V11" t="n">
+        <v>54.4197439874045</v>
+      </c>
+      <c r="W11" t="n">
+        <v>62.2271759922899</v>
+      </c>
+      <c r="X11" t="n">
+        <v>71.4481731060193</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>65.0718715231426</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>64.1741430584618</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>69.8799068612014</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>67.8739738839205</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>59.6824679870685</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>68.230892189649</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>66.2613208639634</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>58.2338317034356</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>67.8331076449471</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>65.4635342422965</v>
       </c>
     </row>
   </sheetData>
